--- a/finetuning/it_datasets/qa_dataset/qa_it_tozeur_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_tozeur_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,69 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe de Paris located at W4CH+JCV Cafe de Paris, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:59, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+Paris/data=!4m7!3m6!1s0x1257ea847802ee31:0x442d2f94334ba4fd!8m2!3d33.9216155!4d8.1285539!16s%2Fg%2F11c1pl56cv!19sChIJMe4CeITqVxIR_aRLM5QvLUQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 826 778.</t>
+          <t>Café de Paris, located in Tozeur (long: 8.1296387, lat: 33.9214463), offers a cozy ambiance for enjoying a cup of coffee or indulging in other cafe delights.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you indulge in a top-rated café experience with a wide selection of options?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a historical site with preserved architecture and a lively market.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully renovated mansion showcasing the region's cultural heritage.
+Midday: Try local cuisine at Cafe El Majles, a renowned salon de the traditionnel with a 5.0 rating.
+Afternoon: Relax and enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park named after a renowned Tunisian poet.
+Evening: Experience Sahara Lounge, a bar lounge with stunning views of the surrounding landscape, offering a tranquil haven for relaxation.
+Night: Enjoy traditional dishes and grilled meats at Restaurant De La Republique Tozeur, known for its dromedary and 4.1 rating.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -766,12 +828,73 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you happen to be in tozeur and seek a pleasant experience, you should check out Cafe El aaliya nestled at W4CF+FX2 Cafe El aaliya, P3, Tozeur. This highly-rated spot with a 5.0 rating is ideal for Cafe enthusiasts. To reach here, refer to the GPS coordinates: (33.9214463, 8.1296387). For more information, visit their website at https://www.google.com/maps/place/Caf%C3%A8+El+aaliya/data=!4m7!3m6!1s0x1257eb183ddc78df:0x59bce73f7c4a2e0a!8m2!3d33.9211438!4d8.1248849!16s%2Fg%2F11hz1yvnc2!19sChIJ33jcPRjrVxIRCi5KfD_nvFk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe El aaliya is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is also a popular spot for locals to gather and socialize. Cafe El aaliya is located at W4CF+FX2, Tozeur, Tunisia.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with GPS coordinates (33.9214463, 8.1296387) that's a favorite among cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a UNESCO World Heritage Site renowned for its ancient architecture and vibrant culture.
+Mid-Morning: Visiting the Musee Dar Cherait, which offers fascinating insights into Tozeur's history and traditions through its collection of artifacts and exhibits.
+Midday: Trying local cuisine at Restaurant Le Soleil, known for its traditional Tunisian dishes like couscous and chakchouka.
+Afternoon: Enjoying a relaxing afternoon with a stroll through Parc Abou El Kacem Chebbi, admiring the lush greenery and tranquil pathways.
+Evening: Participating in a traditional Saharan dinner experience at The Sahara Lounge, surrounded by the beauty of the desert.
+Night: Exploring the vibrant atmosphere and entertainment at The Sahara Lounge, which offers live music and a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -869,12 +992,70 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafeteria l'Escale located at W4G8+RR8 Cafeteria l'Escale, Av. du Palestine, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What highly-rated Cafe destination is perfect for Cafe lovers in Tozeur?</t>
+          <t>Day Plan:
+Morning: Start the day with a visit to Medina de Tozeur, a UNESCO World Heritage Site that offers a glimpse into the city's rich history and culture. Explore the narrow alleys, admire the intricate architecture, and soak up the vibrant atmosphere.
+Mid-Morning: Immerse yourself in the local flavors by trying traditional Tunisian cuisine at Restaurant Le Soleil. Savor dishes like couscous, dromadaire, and chakchouka.
+Midday: After lunch, head over to Musee Dar Cherait and take a guided tour of the restored mansion that houses the collection of historical artifacts. Learn about the region's past and admire the traditional Tunisian costumes.
+Afternoon: Enjoy a leisurely walk through Parc Abou El Kacem Chebbi, a tranquil park with lush greenery and blooming flowers. Find a peaceful spot to relax and take in the beauty of the surroundings.
+Evening: For a cultural immersion, attend a traditional performance or workshop at L'ilot Palmiers, a camping site nestled amidst a palm grove. Experience the rhythmic music, dance, and storytelling that are part of Tunisian heritage.
+Night: End the day by indulging in a relaxing soak at a traditional steam room called a hammam. The warmth and steam will rejuvenate your body and mind, providing a perfect end to an immersive day in Tozeur.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -976,12 +1157,73 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out The Wolf located at W489, Rte Touristique. This destination is perfect for Cafe lovers and offers a rating of 5.0. It's open during these hours: 05:30-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a 5.0-rated cafe in Tozeur, known for its exceptional offerings and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a historical site with traditional brick houses, intricate doors, arches, and vibrant marketplaces. 
+Mid-Morning: Visit Musee Dar Cherait, a cultural destination showcasing ancient artifacts, artwork, and traditional Tunisian costumes. 
+Midday: Indulge in a delightful lunch at Restaurant Chak Wak, known for its delicious dishes and live music. 
+Afternoon: Relax and rejuvenate at HÔTEL RAS EL AIN TOZEUR, a luxurious hotel with a spa, fitness center, and swimming pools. 
+Evening: Experience the unique ambiance of The Sahara Lounge, a park-like setting with palm trees, a playground, and a zip line. 
+Night: Savor authentic Tunisian cuisine at Restaurant De La Republique Tozeur, renowned for its dromadaire and poulet dishes.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a cafe located in Tozeur, Tunisia at (33.9214463, 8.1296387). It offers a cozy ambiance to relax and enjoy its variety of drinks and snacks. The cafe opens from 5:30 AM to midnight.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1079,15 +1321,68 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot to relax, check out mqh~ lnkhyl located at W47F+H75 mqh~ lnkhyl, Unnamed Road.
-This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 33.9214463, 8.1296387. 
-For more details, visit mqh~ lnkhyl's link at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1257eb2016df11dd:0x4f1e098f58d8b560!8m2!3d33.9138759!4d8.1232423!16s%2Fg%2F11g3xg21jt!19sChIJ3RHfFiDrVxIRYLXYWI8JHk8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>What is the name and why should you visit the cozy spot with a 5.0 rating in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, a labyrinthine city with traditional brick houses and vibrant marketplaces.
+Mid-Morning: Visit the Musee Dar Cherait, a renovated mansion that showcases Tunisian heritage through artifacts, artwork, and costumes.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, known for its couscous, salads, and dromadaire dishes.
+Afternoon: Visit Sahara Lounge, a bar lounge with stunning views of the landscape, and enjoy a relaxing afternoon with a cool drink.
+Evening: Participate in a cultural immersion at Cafe El Majles, a traditional salon de the that offers a blend of tradition and modernity.
+Night: Enjoy dinner at Yam Yam Tozeur, a highly-rated crepe restaurant with a friendly owner.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1488,68 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for an authentic Tunisian dining experience, visit Restaurant Le Soleil located at W49M+4MQ, Av. Abou el Kacem Chebbi. With a 4.2 rating based on 282 reviews, this restaurant specializes in traditional Tunisian cuisine and offers a range of dishes to choose from. It's open 24/7 and can be reached by phone at 22 193 881. For more details, visit their website or use the GPS coordinates (33.9191699, 8.1292337) to navigate.</t>
+          <t>Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find an authentic Tunisian dining experience with a 4.2 rating based on hundreds of reviews?</t>
+          <t>Day Plan:
+Morning: Explore the ancient streets of Medina de Tozeur, a UNESCO World Heritage Site that transports you to a bygone era.
+Mid-Morning: Try local cuisine at Restaurant Le Soleil, known for its traditional Tunisian dishes and warm ambiance.
+Midday: Visit the Sahara Lounge for a unique desert experience amidst stunning views. Enjoy a refreshing swim or indulge in their delectable dining options.
+Afternoon: Head to Parc Abou El Kacem Chebbi for a serene stroll surrounded by lush greenery and blooming flowers. Immerse yourself in the tranquility of this beautiful park.
+Evening: Experience the vibrant culture of Tozeur at Yam Yam Tozeur, known for its exquisite crepes. Savor the sweet and savory flavors of this local delicacy.
+Night: Relax and unwind at Dar Saida Beya, an elegant hotel renowned for its comfort, charm, and rejuvenating spa treatments.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1655,70 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant De La Republique Tozeur located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217038, 8.1353451. For more details, visit their website or call them at 23 821 901.</t>
+          <t>Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you indulge in highly-rated Restaurant tunisien cuisine at a top-rated destination with 24/7 availability?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Maison Des Poissons Tozeur for fresh seafood and local delicacies.
+Midday: Take a guided tour of the Anantara Sahara Tozeur Resort &amp; Villas, a luxurious desert getaway.
+Afternoon: Visit the Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of one of Tunisia's most famous poets.
+Evening: Enjoy local cuisine at Restaurant Pizzeria Azzoura, known for its authentic Italian dishes.
+Night: Relax and enjoy the ambiance at the Sahara Lounge, featuring a park-like setting and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1824,73 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe Berbere located at W4CQ+88Q, Ouled El Hadef, Tozeur. With a rating of 5.0, it's the perfect destination for cafe lovers. It's open from 8:30 AM to midnight every day. For more details, visit their link or call them at 50 719 277.</t>
+          <t>Cafe Berbere is a 5-star rated cafe located in Ouled El Hadef, Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It offers a pleasant atmosphere with music, shisha, and a variety of drinks, including the popular "the a la menthe," orange juice, and lemonade. The cafe's terrace provides a delightful setting to enjoy refreshments and relax amid the town's ambiance.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Berbere, a highly-rated cafe with extended hours in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site, and immerse yourself in the ancient history and culture of the region.
+Mid-Morning: Visit the Musee Dar Cherait to delve into the captivating world of Tunisian history and culture through fascinating exhibits and displays.
+Midday: Savour the authentic flavours of Tunisian cuisine with a delicious lunch at Restaurant Le Soleil, offering a range of traditional dishes.
+Afternoon: Relax and soak up the sun at L'ilot Palmiers, a unique camping site nestled amidst a beautiful palm grove, offering a serene and immersive desert experience.
+Evening: Head to the Sahara Lounge for an evening of entertainment and nature, where you can unwind in the park-like setting, enjoy live music, and dine on delectable food.
+Night: Experience the warmth and hospitality of Tozeur with a stay at HÔTEL RAS EL AIN TOZEUR, a luxurious hotel that offers a rejuvenating spa, fitness centre, and a delectable range of dining options.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1528,14 +1996,68 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and seeking a delightful dining experience, consider Scoop Cafe-Resto on Av. Abou el Kacem Chebbi.
-Renowned for its Restaurant culinary offerings, this top-rated destination boasts a range of choices for food lovers. Rated an impressive 4.3, Scoop Cafe-Resto promises a memorable visit.
-Open from 07:00-00:00, it welcomes guests daily. For guidance, utilize GPS coordinates (33.9262616, 8.1315781) or contact them at 27 720 721.</t>
+          <t>Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated dining experience known for its Restaurant culinary offerings and inviting ambiance?</t>
+          <t>Day Plan:
+Morning: Visit the Medina of Tozeur, a UNESCO World Heritage Site, to explore its narrow alleys lined with intricate doors and traditional architecture.
+Mid-Morning: Immerse yourself in the scents and flavors of the Maison Des Poissons Tozeur, a seafood market offering a wide selection of fresh catches.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Afternoon: Engage in a guided tour of the Musée Dar Cherait, a restored mansion housing a collection of ancient Tunisian artifacts, artwork, and costumes.
+Evening: Relax and unwind at the Sahara Lounge, a bar lounge offering stunning views of the surrounding desert landscape and a range of activities, including camel rides and quad biking.
+Night: Indulge in a delightful dining experience at Restaurant Chak Wak, renowned for its welcoming ambiance, live music, and delicious dishes at reasonable prices.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café de Paris, located in Tozeur (long: 8.1296387, lat: 33.9214463), offers a cozy ambiance for enjoying a cup of coffee or indulging in other cafe delights.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1633,14 +2155,68 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a place to eat, check out Restaurant Chak Wak located at W46W+JP4 Restaurant Chak Wak, Rte des Touaregs. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at nan or call them at 55 139 738.</t>
+          <t>Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated culinary experience in Tozeur, what restaurant boasts a 4.2 rating and offers extended operating hours?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a historical site that exudes charm and authenticity.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully renovated mansion where Tunisian heritage comes alive.
+Midday: Try local cuisine at Restaurant Le Soleil, a traditional Tunisian restaurant with 4.2 stars and 282 reviews.
+Afternoon: Relax and unwind at the Sahara Lounge, a bar lounge with stunning views of the surrounding desert landscape.
+Evening: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park offering a serene and picturesque setting.
+Night: Experience cultural immersion at Eden Palm, a cultural heritage museum that offers a captivating exploration of date palm cultivation and the delectable flavors of dates.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1746,12 +2322,68 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Le Minaret Ferkous located at Rue Mohamed Ali El Ajimi, Tozeur. This top-rated destination is perfect for restaurant lovers and also offers cafe. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.920876936631, 8.134389243277. For more details, visit their website at https://www.google.com/maps/place/Le+Minaret+Ferkous/data=!4m7!3m6!1s0x1257eb9c4e0b1c51:0x694bb8b4b9ec92ea!8m2!3d33.9214663!4d8.1351477!16s%2Fg%2F11kqzvg8p8!19sChIJURwLTpzrVxIR6pLsubS4S2k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 716 333.</t>
+          <t>Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a top-rated restaurant and café with GPS coordinates of 33.920876936631, 8.134389243277?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site, for a glimpse into the city's rich history and architectural wonders.
+Mid-Morning: Visit PARC CHAK WAK to delve into the fascinating history of humanity, evolution, and natural wonders. Immerse yourself in the collection of dinosaur fossils and historical artifacts.
+Midday: Try local cuisine at Restaurant Pizzeria Azzoura, known for its authentic Italian dishes and 4.1 stars based on 32 reviews.
+Afternoon: Enjoy a relaxing afternoon at Sahara Lounge, where you can unwind amidst nature and indulge in activities such as zip-lining.
+Evening: Take a stroll through Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet, and soak in the tranquil atmosphere surrounded by lush greenery and blooming flowers.
+Night: Visit Cafe La Rosa, open 24 hours a day, to savor a cup of coffee or tea and enjoy a laid-back ambiance.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1857,14 +2489,73 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, check out Resto Cafe El Berka. 
-This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Resto+Caf%C3%A9+El+Berka/data=!4m7!3m6!1s0x1257c15765a2fc13:0x5a057b5b991c1aee!8m2!3d33.916396!4d8.1389735!16s%2Fg%2F11vjggt1rf!19sChIJE_yiZVfBVxIR7hocmVt7BVo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 297 297.</t>
+          <t>Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.9) restaurant in Tozeur that offers multiple food categories?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a UNESCO World Heritage Site with its ancient gates and vibrant colors.
+Mid-Morning: Try local cuisine at Restaurant Le Soleil, known for its traditional Tunisian dishes.
+Midday: Visit the Musee Dar Cherait, a museum housed in a restored mansion featuring historical artifacts and traditional Tunisian costumes.
+Afternoon: Enjoy a park-like setting with lush palm trees at The Sahara Lounge while indulging in nature and entertainment.
+Evening: Experience cultural immersion at the Sahara Lounge with its park-like setting and entertainment options.
+Night: Relax with a stay at Maison D'hotes Dar Saida Beya, a high-end hotel offering elegant rooms and a patio.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1966,12 +2657,68 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out L'atelier d'Amel Line at Av. Habib Bourguiba. This cafe is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, visit their website at nan or call them at 25 840 707.</t>
+          <t>L'atelier d'Amel Line is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located in the heart of the city, and it offers a great view of the surrounding area. The cafe also has a gift shop, where you can buy souvenirs and other items.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed cafe with a wide selection of cafe options in Tozeur?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a historical site with charm and authenticity.
+Mid-Morning: Trying local cuisine at Restaurant De La Republique Tozeur, offering a variety of Tunisian dishes.
+Midday: Visiting Musee Dar Cherait, a beautifully renovated mansion showcasing Tunisian heritage.
+Afternoon: Enjoying the scenic views at Parc Abou El Kacem Chebbi, a commemorative park with lush greenery and tranquil pathways.
+Evening: Relaxing with mint tea and pastries at Cafe El Majles, a traditional salon de the.
+Night: Participating in a cultural immersion experience at Dar Dhiafa, a traditional Tunisian house offering authentic cultural activities.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El aaliya is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is also a popular spot for locals to gather and socialize. Cafe El aaliya is located at W4CF+FX2, Tozeur, Tunisia.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2820,75 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Salon De The Soltan located at W4CJ+H87 Salon De The Soltan, Ave Farhat Hached, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.92100958622, 8.117383840332. For more details, visit their website at https://www.google.com/maps/place/Salon+De+Th%C3%A9+Soltan/data=!4m7!3m6!1s0x1257ea83b1ff03e1:0x61ca1a15d65210b1!8m2!3d33.9214237!4d8.1307944!16s%2Fg%2F11c57y3vf9!19sChIJ4QP_sYPqVxIRsRBS1hUaymE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 421 425.</t>
+          <t>Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated Cafe called Salon De The Soltan with a rating of 4.1?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Medina de Tozeur, wandering through its labyrinthine streets lined with traditional brick houses and vibrant marketplaces.
+Mid-Morning:
+- Visit the Musee Dar Cherait, a restored mansion showcasing a captivating collection of Tunisian heritage, including ancient artifacts, fine art, and traditional costumes.
+Midday:
+- Indulge in a delightful culinary experience at Restaurant Le Soleil, renowned for its traditional Tunisian cuisine specializing in dishes like couscous, chakchouka, and grillades.
+Afternoon:
+- Enjoy a serene stroll through Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet, offering lush greenery, blooming flowers, and tranquil pathways.
+- Engage in outdoor activities like a camel ride or quad biking in the surrounding desert landscapes.
+Evening:
+- Treat yourself to the relaxing ambiance of Sahara Lounge, a bar lounge amidst nature offering stunning views of palm trees and a tyrolienne for an exhilarating experience.
+Night:
+- Experience cultural immersion at the Statue d'Ibn Chabbat, a well-known sculpture located in Avenue Farhat Hached, offering a glimpse into Tozeur's rich history and heritage.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2180,14 +2990,68 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Le coin located at W49P+GG6 Cafe Le coin, Tozeur.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Le+coin/data=!4m7!3m6!1s0x1257c028611aaa69:0x20e4c02b43791d9b!8m2!3d33.9187837!4d8.136264!16s%2Fg%2F11f40qqx1z!19sChIJaaoaYSjAVxIRmx15QyvA5CA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a wide selection and extended hours of operation in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site, to experience the traditional architecture and vibrant culture of the Tunisian city.
+Mid-Morning: Visit Musee Dar Cherait to learn about Tozeur's history and culture through its collection of artifacts and traditional costumes.
+Midday: Savor authentic Tunisian cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Afternoon: Enjoy a relaxing atmosphere amidst nature at The Sahara Lounge while trying their signature tyrolienne.
+Evening: Experience the local food scene at Pizzeria krabaa, offering a variety of pizzas and fast food options.
+Night: Take a guided tour of Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet, for a peaceful and picturesque stroll.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2297,12 +3161,70 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Bonzai Lounge Coffee located at W4C9+CV5, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot and it's open 24 hours a day, every day. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/Coffee-Bonzai-236924553917206/ or call them at 52 230 007.</t>
+          <t>Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you experience a top-rated cafe that's open 24/7, making it a must-visit destination?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur and discover its historical charm, vibrant marketplaces, and traditional architecture.
+Mid-Morning: Visit Musée Dar Cherait to delve into Tunisia's rich history, culture, and traditional costumes.
+Midday: Indulge in a delightful Tunisian lunch at Restaurant De La Republique Tozeur, renowned for its dromadaire and poulet dishes.
+Afternoon: Escape to Parc Abou El Kacem Chebbi for a serene stroll amidst lush greenery, blooming flowers, and tranquil pathways.
+Evening: Head to Cafe El Majles for a relaxing tea break in a traditional setting that blends tradition and modernity.
+Night: Participate in a captivating cultural evening at The Sahara Lounge, featuring live performances and traditional entertainment under the stars.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2408,12 +3330,72 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Jet 7 Coffee located at RN3, Tozeur. This must-visit spot offers a range of categories to choose from and is perfect for Cafe lovers. With a rating of 5.0, it's open 24 hours a day. To get there, use these GPS coordinates: 33.922278911821, 8.133354898631. For more details, visit their website or call them at 25 261 830.</t>
+          <t>Jet 7 Coffee is a cafe located at (33.922278911821, 8.133354898631) in Tozeur. It is open 24 hours and offers a variety of coffee, tea, and other beverages. The cafe also offers a selection of pastries and sandwiches.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated cafe that is open around the clock, offering a variety of categories to choose from and has a stellar rating of 5.0?</t>
+          <t>**Day Plan:**
+**Morning:** Visit the Medina de Tozeur for a historical immersion, exploring its ancient architecture and lively market.
+**Mid-Morning:** Try local cuisine at Restaurant De La Republique Tozeur, renowned for its dromadaire and poulet dishes with a 4.1 rating.
+**Midday:** Visit the Musee Dar Cherait for a cultural experience, showcasing ancient artifacts, artwork, and traditional Tunisian costumes.
+**Afternoon:** Relax at the Sahara Lounge, a park-like setting with palm trees, a playground, and dining options, with a 4.1-star rating.
+**Evening:** Experience local flavors at Restaurant Tisouros, known for its cooperative experience and affordable prices, offering a highly-rated (4.7/5) dining experience.
+**Night:** Head to Yam Yam Tozeur for their highly-rated (5.0) crepes, making for a sweet and satisfying end to the day.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace Echbala is a cafe in Tozeur, Tunisia, located at coordinates (33.9214463, 8.1296387). It has a rating of 5.0 based on 3 reviews and offers a variety of services.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2519,14 +3501,73 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot to grab a bite, head to Cafe de Paris, conveniently located at W4CH+JCV Cafe de Paris. 
-As a top-rated destination for cafe enthusiasts, it offers a warm and inviting atmosphere with a rating of 4.1. The cafe is open daily from 6 AM to 11:59 PM. For directions, use the GPS coordinates 33.9214463, 8.1296387. 
-To find out more, feel free to call them at 56 826 778.</t>
+          <t>Cafe de Paris is located in Tozeur, Tunisia, and has a rating of 4.1. The cafe is open from 6 AM to 11:59 PM every day and offers a variety of services, including food, drinks, and Wi-Fi. The cafe is also located near several attractions, including the Medina of Tozeur and the Grand Mosque of Tozeur.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Tozeur that offers a cozy atmosphere and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site with its vibrant souks and stunning desert architecture.
+Mid-Morning: Visit the Maison Des Poissons Tozeur, a seafood market, to experience the local flavors and purchase fresh seafood.
+Midday: Try local cuisine at Restaurant Le Soleil, a traditional Tunisian restaurant offering couscous, dromadaire, chakchouka, and other delectable dishes.
+Afternoon: Enjoy a relaxing experience at the Sahara Lounge, where you can unwind amidst lush palm trees, take a stroll, or engage in the available activities like picnicking or enjoying the playground.
+Evening: Take a guided tour of the Anantara Sahara Tozeur Resort &amp; Villas to witness its luxurious desert ambiance, stunning views, and elegant architecture.
+Night: Indulge in a delicious dinner at Yam Yam Tozeur, known for its highly rated crepes, and savor the sweet flavors of Tozeur.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3677,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe El Majles located at W4F6+F2G Cafe El Majles, Avenue 14 Janvier 2011, Tozeur. This top-rated destination is perfect for Salon de the traditionnel lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.914743393196, 8.116001096002. For more details, visit their website at https://www.facebook.com/elmajlestozeur or call them at 21 388 668.</t>
+          <t>Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Salon de the traditionnel destination in Tozeur with exceptional ratings, located near the coordinates 33.914743393196, 8.116001096002?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of Medina de Tozeur, a UNESCO World Heritage Site. Admire the intricate carvings and vibrant colors of the traditional brick houses and immerse yourself in the rich architectural heritage of the region.
+Mid-Morning: Visit Musée Dar Cherait, which features exhibits on Tunisian history, culture, and traditional costumes. Learn about the local heritage and traditions through the museum's displays.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, renowned for its dromadaire and poulet dishes. Savor the flavors of traditional Tunisian cuisine and enjoy the warm hospitality of the restaurant.
+Afternoon: Explore the Sahara Lounge, a park-like setting with lush palm trees, offering a tranquil ambiance. Relax and enjoy the natural beauty of the area, taking advantage of the playground and zip line for kids.
+Evening: Attend a cultural immersion event at Cafe El Majles, a traditional salon de the. Experience the blend of tradition and modernity, enjoying the delicious dishes and warm hospitality while learning about the local culture.
+Night: Head to Station Louage de Tozeur for transportation to a nearby desert camp. Spend the night under the starry sky, experiencing the tranquility and serenity of the desert landscape.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jet 7 Coffee is a cafe located at (33.922278911821, 8.133354898631) in Tozeur. It is open 24 hours and offers a variety of coffee, tea, and other beverages. The cafe also offers a selection of pastries and sandwiches.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2743,14 +3843,68 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Palmera located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487.</t>
+          <t>Cafe Palmera is a highly-rated cafe located in Tozeur, Tunisia. It offers a wide variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur, and is open from 6:00 AM to midnight.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where is the must-visit Cafe Palmera located in Tozeur, offering top-rated Cafe experiences with a range of categories?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site that transports visitors to a bygone era. Wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage.
+Mid-Morning: Visit Musee Dar Cherait, housed in a restored mansion. Admire a collection of historical artifacts, artworks, and traditional Tunisian costumes. Take a guided tour to delve into the history and culture of the region.
+Midday: Savor the flavors of Tozeur at Restaurant Le Soleil. Renowned for its traditional Tunisian cuisine, indulge in dishes like couscous, chakchouka, and grillades. Enjoy the cozy ambiance and courteous staff.
+Afternoon: Immerse yourself in the serenity of Parc Abou El Kacem Chebbi. Relax amidst lush greenery, blooming flowers, and tranquil pathways. Capture the beauty of the park through photography or simply soak in the peaceful ambiance.
+Evening: Experience the vibrant atmosphere of Sahara Lounge. Nestled amidst nature, enjoy stunning views of the surrounding landscape. Partake in exciting activities like tyrolienne (zip-lining) and relish the tranquility of this haven for relaxation and entertainment.
+Night: Indulge in the delectable crepes at Yam Yam Tozeur, renowned for its perfect 5.0 rating. Savor the sweet and savory flavors of these treats, accompanied by the warm hospitality of the friendly owner.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sport is a cafe located in Tozeur, Tunisia. It is a great place to relax and enjoy a cup of coffee or tea. The cafe is also known for its friendly staff and its delicious pastries. Cafe Sport is located at the following coordinates: (33.9214463, 8.1296387).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2852,12 +4006,69 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot, check out Cafe Zouba located at W4CP+F8J Cafe Zouba, Tozeur. This top-rated cafe serves coffee, tea, and other beverages in a relaxed and friendly atmosphere. With a rating of 4.0, it's a must-visit spot for cafe lovers. It's open during these hours: 05:00-21:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Café Zouba is a cafe located in Tozeur, Tunisia. It is rated 4.0 out of 5 stars with 5 reviews. The cafe offers a variety of coffee and tea drinks, as well as pastries and other snacks. It is located at W4CP+F8J Cafe Zouba, Tozeur.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find the cozy Cafe Zouba, known for its welcoming atmosphere and top-rated coffee and beverages?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Tozeur.
+Mid-Morning: Try traditional Tunisian cuisine at Restaurant Le Soleil.
+Midday: Visit the L'ilot Palmiers camping site to enjoy the unique camping experience amidst a palm grove.
+Afternoon: Relax and rejuvenate with a visit to the Sahara Lounge, located in a lush park with stunning views.
+Evening: Experience cultural immersion at the Musee Dar Cherait, which showcases Tunisian heritage through ancient artifacts and traditional costumes.
+Night: Dine at Number One, a fast-food restaurant known for its friendly service and convenient location.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Berbere is a 5-star rated cafe located in Ouled El Hadef, Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It offers a pleasant atmosphere with music, shisha, and a variety of drinks, including the popular "the a la menthe," orange juice, and lemonade. The cafe's terrace provides a delightful setting to enjoy refreshments and relax amid the town's ambiance.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2955,14 +4166,70 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe de L'independance located at Av. Habib Bourguiba, Tozeur. 
-This destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.92036, 8.1362994. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+L%E2%80%99ind%C3%A9pendance/data=!4m7!3m6!1s0x1257c1f4354d0707:0x2081c2c212fd7b89!8m2!3d33.9204125!4d8.1362656!16s%2Fg%2F11g0jdssph!19sChIJBwdNNfTBVxIRiXv9EsLCgSA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Tozeur known for its excellent offerings?</t>
+          <t>Day Plan:
+Morning: Explore the ancient alleyways and architectural wonders of Medina de Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Visit the unique PARC CHAK WAK, a blend of history, science, creativity, and natural beauty.
+Midday: Enjoy the delectable flavors of Tunisian cuisine at Restaurant Les Arcades, known for its excellent service and affordably priced dishes.
+Afternoon: Relax and rejuvenate at the tranquil Sahara Lounge, surrounded by lush palm trees and offering a serene ambiance.
+Evening: Experience the vibrant atmosphere of the local market, where you can browse for traditional handicrafts and savor the sweet taste of dates.
+Night: Indulge in a cultural immersion at Eden Palm, a museum dedicated to the cultivation of date palms and the exquisite flavors of dates blended with chocolate.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe Mallorca", a popular cafe located on Avenue 4 Aout 1880 in Tozeur, Tunisia, at coordinates (33.91732548103, 8.126746090487). Boasting a 5.0 rating from 4 reviews, the cafe is open 24 hours a day, 7 days a week. While the website and description are not provided, you can find more details and user-generated content on the provided link.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3072,12 +4339,70 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe La Rosa located at W48M+R37 Cafe La Rosa, Av. Abou el Kacem Chebbi, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://m.facebook.com/Cafe-La-Rosa-tozeur-660194007516712/?ref=page_internal&amp;mt_nav=0 or call them at 24 804 483.</t>
+          <t>Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe called Cafe La Rosa, known for its excellent selection of Cafe, located in Tozeur?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur
+Mid-Morning: Visiting Musée Dar Cherait
+Midday: Trying local cuisine at Restaurant Pizzeria Azzoura
+Afternoon: Relaxing with a spa treatment at Diar Aroma Lounge
+Evening: Participating in the Sahara Lounge event
+Night: Enjoying scenic views at Statue d'Ibn Chabbat</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3183,12 +4508,74 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Mallorca located at Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487. For more details, visit their website or call them at 55 458 257.</t>
+          <t>Discover "Cafe Mallorca", a popular cafe located on Avenue 4 Aout 1880 in Tozeur, Tunisia, at coordinates (33.91732548103, 8.126746090487). Boasting a 5.0 rating from 4 reviews, the cafe is open 24 hours a day, 7 days a week. While the website and description are not provided, you can find more details and user-generated content on the provided link.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated Cafe experience open 24 hours a day, perfect for Cafe lovers?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Medina of Tozeur, a labyrinth of narrow brick alleys lined with intricate doors and stunning desert architecture.
+**Mid-Morning:**
+* Visit the Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi.
+**Midday:**
+* Have lunch at Restaurant De La Republique Tozeur, renowned for its Tunisian dishes, including couscous, salads, and legumes.
+**Afternoon:**
+* Engage in outdoor activities by zip-lining at Sahara Lounge, a bar lounge with a lush park and leisure center.
+**Evening:**
+* Experience cultural immersion at Eden Palm, a museum that explores date palm cultivation, the delectable flavors of dates, and the rich aromas of chocolate.
+**Night:**
+* Relish the fast-food options at Number One, a highly-rated restaurant known for its friendly service and convenient location.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jet 7 Coffee is a cafe located at (33.922278911821, 8.133354898631) in Tozeur. It is open 24 hours and offers a variety of coffee, tea, and other beverages. The cafe also offers a selection of pastries and sandwiches.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3290,14 +4677,71 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe Terrasse located at W47H+P42 Cafe Terrasse, Av. Abou el Kacem Chebbi, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-12:00, but closed on . To get there, use these GPS coordinates: 33.91717636496, 8.133063786585.</t>
+          <t>Cafe Terrasse is a highly-rated cafe located in Tozeur, Tunisia, offering a cozy ambiance and a range of coffee and tea drinks. It's situated at coordinates (33.91717636496, 8.133063786585) and is open daily from 6 AM to 12 PM.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection in the heart of Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved architecture of the Medina de Tozeur, featuring brick houses and elaborate gates.
+Mid-Morning: Embark on a guided tour of the Musee Dar Cherait, offering insights into Tunisia's history and traditional costumes, art, and objects.
+Midday: Savor a delightful traditional Tunisian lunch at the renowned Restaurant Le Soleil, known for its delectable couscous and grillades.
+Afternoon: Indulge in a relaxing and rejuvenating spa treatment at Hotel Ras El Ain Tozeur, a luxurious 5-star hotel offering a range of pampering amenities.
+Evening: Ascend to the Statue d'Ibn Chabbat for captivating panoramic views of the surrounding desert landscape.
+Night: Experience the vibrant ambiance of the Sahara Lounge, savoring authentic Tunisian cuisine while enjoying stunning views of the desert under the starry sky.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace Echbala is a cafe in Tozeur, Tunisia, located at coordinates (33.9214463, 8.1296387). It has a rating of 5.0 based on 3 reviews and offers a variety of services.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3399,14 +4843,76 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Baoueb Lemdina located at W4GQ+J67 Cafe Baoueb Lemdina, Avenue Avicenne, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 33.926052462407, 8.137673503962. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Baoueb+Lemdina/data=!4m7!3m6!1s0x1257c02b6d601395:0xe0681f7d2878a61b!8m2!3d33.9265375!4d8.1380469!16s%2Fg%2F11g5_50_8b!19sChIJlRNgbSvAVxIRG6Z4KH0faOA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Baoueb Lemdina is a cafe located in the city of Tozeur, Tunisia. It offers a variety of drinks and snacks, and is located on Avenue Avicenne. The cafe has a rating of 4.0 out of 5 on Google, and is open from 4:00 am to 10:00 pm.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a top-rated Cafe with a wide selection of options and a cozy atmosphere?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Visit the Eden Palm, a cultural heritage museum that showcases date palm cultivation and the delectable flavors of dates and chocolate.
+**Mid-Morning:**
+* Explore the Medina of Tozeur, a UNESCO World Heritage site with a labyrinth of narrow brick alleys and intricate doors adorned with stunning desert architecture.
+**Midday:**
+* Try local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+**Afternoon:**
+* Relax with a refreshing swim in the outdoor pool at Anantara Sahara Tozeur Resort &amp; Villas.
+**Evening:**
+* Enjoy a leisurely stroll in Parc Abou El Kacem Chebbi, a commemorative park with lush greenery, blooming flowers, and tranquil pathways.
+**Night:**
+* Participate in a traditional Tunisan dinner at Dar Tozeur, an elegant guesthouse with a chic restaurant serving delicious local and international cuisine.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3500,14 +5006,70 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Cafe El aaliya, located at W4CF+FX2 Cafe El aaliya, P3, Tozeur. 
-This top-rated destination is perfect for cafe lovers and has a rating of 5.0. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+El+aaliya/data=!4m7!3m6!1s0x1257eb183ddc78df:0x59bce73f7c4a2e0a!8m2!3d33.9211438!4d8.1248849!16s%2Fg%2F11hz1yvnc2!19sChIJ33jcPRjrVxIRCi5KfD_nvFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [Phone Number].</t>
+          <t>Cafe El aaliya is a 5-star cafe located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). Despite having no website, reviews, or featured image, it offers a cozy and inviting atmosphere for customers.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Tozeur, Tunisia, with a perfect 5.0 rating and a popular destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tozeur, a UNESCO World Heritage Site, to immerse yourself in the city's rich architectural heritage.
+Mid-Morning: Visit Musee Dar Cherait for a glimpse into Tozeur's cultural past, featuring historical artifacts and traditional costumes.
+Midday: Satisfy your taste buds with local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Afternoon: Head to the picturesque Sahara Lounge for a leisurely afternoon surrounded by nature, enjoying the park-like setting and indulging in the playground and zip line.
+Evening: Enhance your cultural immersion by participating in the traditional crafts demonstration at Dar Ezzahra, where you can observe artisans showcasing their skills.
+Night: Indulge in a rejuvenating experience at the luxurious Anantara Sahara Tozeur Resort &amp; Villas, where you can relax with a spa treatment and enjoy the enchanting ambiance of the desert.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'atelier d'Amel Line is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located in the heart of the city, and it offers a great view of the surrounding area. The cafe also has a gift shop, where you can buy souvenirs and other items.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3601,12 +5163,70 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in tozeur, Espace Echbala is a must-visit spot for Cafe lovers. Located at W467+5R5 Espace Echbala, Tozeur, this top-rated destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>Espace Echbala is a cafe in Tozeur, Tunisia, located at coordinates (33.9214463, 8.1296387). It has a rating of 5.0 based on 3 reviews and offers a variety of services.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated café with a wide selection of drinks, making it a popular spot for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved architecture of the Medina de Tozeur, a historical site with narrow streets and elaborate gates.
+Mid-Morning: Immerse yourself in the vibrant culture of Tozeur by visiting the Musée Dar Cherait, which showcases exhibits on Tunisian history, culture, and traditional costumes.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant Le Soleil, known for its authentic dishes like couscous, dromadaire, and chakchouka.
+Afternoon: Take a refreshing dip in the outdoor swimming pool or relax in the tranquil atmosphere of L'ilot Palmiers, a camping site set amidst a beautiful palm grove.
+Evening: Ascend to the summit of Statue d'Ibn Chabbat for breathtaking panoramic views of Tozeur.
+Night: Experience the lively ambiance of the Sahara Lounge, where you can enjoy a blend of nature and entertainment in a park-like setting featuring lush palm trees and a playground for children.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rimel is a cafe located in Tozeur, Tunisia. It has a 5.0 rating on Google, with one review. The cafe is located at coordinates (33.930657993656, 8.128086372939).
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3708,14 +5328,69 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out The Wolf located at W489+7PQ The Wolf, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/The+Wolf/data=!4m7!3m6!1s0x1257eb6e090856b5:0x34b1f43f04d9e990!8m2!3d33.9157071!4d8.1193639!16s%2Fg%2F11sycbwclq!19sChIJtVYICW7rVxIRkOnZBD_0sTQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Wolf is a cafe located in Tozeur, Tunisia, offering a cozy ambiance and a variety of coffee and tea beverages. Customers can unwind and enjoy their drinks while taking in the surroundings. The cafe operates daily from 5:30 AM to midnight, providing ample time for locals and visitors alike to visit and indulge in its offerings.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>What top-rated cafe, perfect for cafe lovers, can be found at coordinates 33.9214463, 8.1296387 in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina of Tozeur, a UNESCO World Heritage Site. Immerse yourself in the vibrant souks, admire the stunning desert architecture, and sample the sweet local dates.
+Mid-Morning: Visit Anantara Sahara Tozeur Resort &amp; Villas. Take a refreshing dip in the pool, rejuvenate at the spa, or simply relax and soak up the breathtaking views of the surrounding desert.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur. Indulge in authentic Tunisian dishes, including couscous, salads, and legumes. Don't miss the dromadaire and poulet specialties.
+Afternoon: Embark on a guided tour of PARC CHAK WAK. Discover the museum's captivating exhibits on humanity's history, evolution, and natural wonders. Marvel at dinosaur fossils, historical artifacts, and religious relics.
+Evening: Explore the Sahara Lounge. Enjoy a relaxed atmosphere with stunning views of the desert landscape. Savor local delicacies while sipping on refreshing beverages at the bar.
+Night: Experience cultural immersion at Cafe El Majles. Immerse yourself in the traditional ambiance of this salon de the traditionnel, offering a blend of tradition and modernity. Engage with locals and delve into the rich cultural heritage of Tozeur.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia. It is a highly rated cafe with a 5.0 rating based on 2 reviews. The cafe is conveniently located near the city's center, at the coordinates (33.928839112011, 8.11572396509).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3813,12 +5488,70 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe My Story conveniently located at W4CJ+824 Cafe My Story, Av. du 9 Avril, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5 from 2 reviews, it's a must-visit spot. It's featured image is https://lh5.googleusercontent.com/p/AF1QipMdObe_M7GZQr4EHYCm4hHEa7JtKvJL07hJmZ9t=w408-h272-k-no. You can find more details on their website or call them at . To get there, use these GPS coordinates: 33.919144152937, 8.127331311477.</t>
+          <t>Cafe My Story is a popular cafe located in Tozeur. The cafe offers a variety of drinks and snacks, and is a great place to relax and enjoy the atmosphere. Cafe My Story is located at W4CJ+824 Cafe My Story, Av. du 9 Avril, Tozeur, and is open from Monday to Sunday, from 8am to 10pm.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe My Story located, offering a perfect destination for Cafe enthusiasts with its convenient accessibility?</t>
+          <t>Day Plan:
+Morning: Visit the historic Medina of Tozeur, a UNESCO World Heritage Site, to explore its narrow brick alleys, intricate doors, and stunning desert architecture.
+Mid-Morning: Try local cuisine at Restaurant De La Republique Tozeur, known for its traditional Tunisian dishes, including couscous, salads, and grilled meats.
+Midday: Visit the Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi, where you can learn about his poetry and personal life.
+Afternoon: Take a guided tour of the Eden Palm heritage museum to learn about local products and culture, including palm trees and date tastings, and enjoy chocolate making demonstrations.
+Evening: Relax and unwind at the Sahara Lounge, a unique park-like setting with lush palm trees, a zip line for kids, and a tranquil ambiance, perfect for families.
+Night: Enjoy dinner at Restaurant Pizzeria Azzoura, known for its Italian cuisine and positive reviews, to end the day on a delicious note.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3920,14 +5653,68 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Cafe Garibaldi located at W47F+FPH. 
-This top-rated destination is perfect for cafe lovers and it's open during these hours: 06:00-00:00. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated cafe with extended hours and a 4.0 rating in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Visit PARC CHAK WAK, a museum with exhibits on humanity, evolution, and natural wonders.
+Midday: Try local cuisine at Resto Cafe El Berka, a well-rated restaurant with a 4.9-star rating.
+Afternoon: Enjoy scenic views at Eden Palm, which offers insights into date palm cultivation and chocolate flavors.
+Evening: Relax with a traditional tea experience at Cafe El Majles, a highly acclaimed salon de the traditionnel.
+Night: Experience the vibrant atmosphere at Sahara Lounge, a bar lounge with stunning views and family-friendly entertainment.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4025,14 +5812,68 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafeteria l'Escale located at W4G8+RR8 Cafeteria l'Escale, Av. du Palestine, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.928839112011, 8.11572396509. For more details, visit their link at https://www.google.com/maps/place/Cafeteria+l%27Escale/data=!4m7!3m6!1s0x1257eb7d4ad7bfb9:0x75aa32cae64449b4!8m2!3d33.9265118!4d8.1167148!16s%2Fg%2F11t4gxvf5c!19sChIJub_XSn3rVxIRtElE5soyqnU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafeteria l'Escale is a cafe located in Tozeur, Tunisia. It is a highly rated cafe with a 5.0 rating based on 2 reviews. The cafe is conveniently located near the city's center, at the coordinates (33.928839112011, 8.11572396509).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a wide selection of Cafe options and a perfect 5.0 rating in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site, and discover its ancient gates, narrow alleys, and traditional architecture.
+Mid-Morning: Visit the Musée Dar Cherait to learn about Tunisian history and culture through its collection of artifacts, artwork, and costumes.
+Midday: Try local cuisine at Restaurant Le Soleil, known for its traditional Tunisian dishes and cozy ambiance.
+Afternoon: Relax with a camel ride or quad biking excursion in the Sahara Desert, offered by the Sahara Lounge.
+Evening: Enjoy scenic views of the desert landscape at the Sahara Lounge while savoring a delicious dinner.
+Night: Experience cultural immersion at Cafe El Majles, a traditional salon de the renowned for its perfect blend of tradition and modernity.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Paris is located in Tozeur, Tunisia, and has a rating of 4.1. The cafe is open from 6 AM to 11:59 PM every day and offers a variety of services, including food, drinks, and Wi-Fi. The cafe is also located near several attractions, including the Medina of Tozeur and the Grand Mosque of Tozeur.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4130,14 +5971,69 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out mqh~ lnkhyl located at W47F+H75 mqh~ lnkhyl, Unnamed Road. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1257eb2016df11dd:0x4f1e098f58d8b560!8m2!3d33.9138759!4d8.1232423!16s%2Fg%2F11g3xg21jt!19sChIJ3RHfFiDrVxIRYLXYWI8JHk8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Discover the Unnamed Cafe in Tozeur**
+Nestled amidst the enchanting city of Tozeur, the Unnamed Cafe invites you to indulge in a serene and cozy ambiance. Situated at coordinates (33.9214463, 8.1296387), it offers a delightful menu and a welcoming atmosphere that will make your visit unforgettable.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated destination with a top-notch selection of Cafe options for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Visit Medina de Tozeur to immerse yourself in the city's rich history and traditional architecture.
+Mid-Morning: Take a guided tour of PARC CHAK WAK to explore its fascinating exhibits on the history of humanity, evolution, and natural wonders.
+Midday: Delight in a delicious Tunisian lunch at Restaurant Le Soleil, renowned for its authentic and flavorful dishes.
+Afternoon: Escape to Sahara Lounge for a relaxing afternoon surrounded by nature, offering scenic views and a range of activities like zip-lining.
+Evening: Head to Dar Ezzahra for a traditional Moroccan dinner and experience the warm hospitality of the locals.
+Night: Conclude the day by stargazing at the enchanting Chott el Gharsa, known for its stunning night skies.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4231,12 +6127,71 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe Rimel located at W4MM+FW4 Avenue d'Iraq, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Rimel/data=!4m7!3m6!1s0x1257c128eba2ea83:0xa55ba238513dd6e!8m2!3d33.9336353!4d8.1348201!16s%2Fg%2F11rwj664sw!19sChIJg-qi6yjBVxIRbt0ThSO6VQo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Rimel is a cafe located in Tozeur, Tunisia. It has a 5.0 rating on Google, with one review. The cafe is located at coordinates (33.930657993656, 8.128086372939).</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a wide selection in Tozeur?</t>
+          <t>Day Plan:
+Morning: Start your day by immersing yourself in the rich culture of Tozeur at the Medina de Tozeur. Explore its intricate architecture, vibrant markets, and historical landmarks.
+Mid-Morning: Treat your taste buds to some authentic Tunisian cuisine at Restaurant De La Republique Tozeur. Savor the flavors of couscous, salads, and grilled meats, and indulge in the unique ambiance of the restaurant's traditional setting.
+Midday: Take a break from the hustle and bustle and find serenity at Parc Abou El Kacem Chebbi. Stroll through its lush greenery, admire the blooming flowers, and find a peaceful spot to relax and soak in the tranquil atmosphere.
+Afternoon: Embark on an adventurous camel ride through the picturesque desert landscape, venturing beyond the city limits to discover the captivating beauty of the Sahara.
+Evening: Immerse yourself in the vibrant nightlife of Tozeur at the Sahara Lounge. Enjoy the relaxed atmosphere, stunning desert views, and a refreshing drink while mingling with locals and fellow travelers.
+Night: Wind down your day with a rejuvenating experience at a traditional Hammam. Indulge in a soothing soak, followed by a relaxing massage, to revitalize both body and mind.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4334,14 +6289,68 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe Sport located at W4CG+J4H. 
-This 5.0-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at nan.</t>
+          <t>Cafe Sport is a cafe located in Tozeur, Tunisia. It is a great place to relax and enjoy a cup of coffee or tea. The cafe is also known for its friendly staff and its delicious pastries. Cafe Sport is located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a range of options, located at W4CG+J4H with GPS coordinates 33.9214463, 8.1296387 in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Medina of Tozeur, a UNESCO World Heritage Site, to witness its rich history and architectural wonders.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at Restaurant Le Soleil, known for its traditional dishes and cozy ambiance.
+Midday: Visit the Musée Dar Cherait to delve into the captivating history, culture, and traditions of Tozeur through its captivating exhibits.
+Afternoon: Escape the bustling city at the serene Parc Abou El Kacem Chebbi, where you can relax amidst lush greenery and enjoy picturesque views.
+Evening: Head to Cafe El Majles, a renowned salon de the traditionnel, to savor delicious coffee and soak in the blend of tradition and modernity.
+Night: Experience the vibrant atmosphere of the Sahara Lounge, a bar lounge offering stunning desert views and a range of activities, including camel rides and quad biking.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4439,12 +6448,69 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafetiria"suite coffee" located at W4CJ+WWH Cafetiria"suite coffee". This top-rated destination is a must-visit spot for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Cafetiria%22suite+coffee%22/data=!4m7!3m6!1s0x1257eb0030cfb235:0xced0d00da2e44a5e!8m2!3d33.922452!4d8.1323038!16s%2Fg%2F11y2vsjws9!19sChIJNbLPMADrVxIRXkrkog3Q0M4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where is the top-rated Café "suite coffee" located, known for its exceptional 5.0 rating and convenient GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site, to delve into the rich history and architecture of the city.
+Mid-Morning: Visit the Musée Dar Cherait, a restored mansion housing ancient Tunisian artifacts, artwork, and traditional costumes, for a glimpse into the country's cultural heritage.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant De La Republique Tozeur, known for its authentic flavors and warm ambiance.
+Afternoon: Take a refreshing break at Parc Abou El Kacem Chebbi, enjoying its serene greenery and picturesque setting. Engage in leisurely strolls or peaceful contemplation amidst nature's beauty.
+Evening: Head to Yam Yam Tozeur, a highly-rated establishment known for its delectable crepes, and savor the local cuisine while immersing yourself in the vibrant atmosphere.
+Night: Experience the nightlife at Sahara Lounge, a bar lounge offering a relaxing atmosphere amidst nature. Enjoy stunning views of palm trees and partake in exciting activities like the tyrolienne while relishing affordable treats and drinks.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera is a highly-rated cafe located in Tozeur, Tunisia. It offers a wide variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur, and is open from 6:00 AM to midnight.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4554,12 +6620,68 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This highly-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where is the top-rated hotel in Tozeur, known for its variety of hotel categories and highly-rated destination status?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, marveling at its historical architecture and vibrant market.
+Mid-Morning: Try local cuisine at Restaurant De La Republique Tozeur, savoring traditional Tunisian dishes like couscous and grilled meats.
+Midday: Visit the Mausolee d'Abou El Kacem Chebbi, learning about the life and work of Tunisia's renowned poet.
+Afternoon: Enjoy a leisurely stroll through Parc Abou El Kacem Chebbi, admiring its lush greenery and taking in the tranquil atmosphere.
+Evening: Relax with a rejuvenating spa treatment at Hotel Ras El Ain Tozeur, indulging in a pampering experience.
+Night: Experience the vibrant ambiance of The Sahara Lounge, offering stunning desert views, delectable cuisine, and exciting activities like camel rides and quad biking.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4669,14 +6791,71 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated hotel in Tozeur, Tunisia, known for its range of categories and 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur
+Mid-Morning: Trying local cuisine at Restaurant Le Soleil
+Midday: Visiting the Mausolee d'Abou El Kacem Chebbi
+Afternoon: Enjoying a relaxing experience with a guided tour of Eden Palm
+Evening: Participating in cultural immersion at the Sahara Lounge
+Night: Taking a guided tour of Statue d'Ibn Chabbat</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baoueb Lemdina is a cafe located in the city of Tozeur, Tunisia. It offers a variety of drinks and snacks, and is located on Avenue Avicenne. The cafe has a rating of 4.0 out of 5 on Google, and is open from 4:00 am to 10:00 pm.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4786,13 +6965,70 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Residence l'Oued located at W47H+942. 
-This highly-rated hotel is perfect for those seeking relaxation and comfort. It offers a range of amenities, including a swimming pool, restaurant, and comfortable rooms. With a rating of 4.1 out of 5, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a swimming pool and restaurant in Tozeur, known for its relaxation and comfort?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a well-preserved historical site with traditional architecture and vibrant markets.
+Mid-Morning: Visit Musée Dar Cherait, which showcases Tunisian history and culture through exhibits on traditional costumes.
+Midday: Savor local cuisine at Restaurant De La Republique Tozeur, known for its traditional Tunisian dishes and dromadaire and poulet specialties.
+Afternoon: Escape to L'ilot Palmiers, a unique camping experience in tents nestled amidst a beautiful palm grove. Relax and soak up the authentic desert ambiance.
+Evening: Indulge in a cultural immersion at Eden Palm. Explore the captivating world of date palm cultivation and enjoy delectable flavors of dates and chocolate.
+Night: Head to The Sahara Lounge, a park-like setting with lush palm trees. Enjoy a tranquil ambiance and partake in family-friendly activities like zip-lining and playing in the playground.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4902,15 +7138,74 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Maison D'hotes Dar Saida Beya located at Rue Ahmed El Ayech, Tozeur 2200. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.918871602006, 8.135609625902. 
-For more details, visit their website at http://www.darsaidabeya.com/ or call them at 25 566 066.</t>
+          <t>Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a 4.7 rating and a range of categories to choose from for Maison d'hotes enthusiasts in Tozeur, Tunisia?</t>
+          <t>Day Plan:
+Morning:
+- Explore the Medina de Tozeur, a historical site known for its well-preserved architecture and traditional shops.
+Mid-Morning:
+- Visit the Musee Dar Cherait, a museum housed within a restored mansion showcasing Tunisian heritage.
+Midday:
+- Try local cuisine at Restaurant De La Republique Tozeur, a highly rated Tunisian restaurant offering a variety of traditional dishes.
+Afternoon:
+- Enjoy scenic views at Statue d'Ibn Chabbat, a well-known sculpture in the city center.
+Evening:
+- Engage in outdoor activities like tyrolienne (zip-lining) at Sahara Lounge, a bar lounge offering a unique experience amidst nature.
+Night:
+- Experience cultural immersion at Chez Giorgio, a reputable restaurant offering a 5-star dining experience showcasing the local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia. It is a highly rated cafe with a 5.0 rating based on 2 reviews. The cafe is conveniently located near the city's center, at the coordinates (33.928839112011, 8.11572396509).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5012,12 +7307,68 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a charming place to stay, consider Villa Taouzert, located at Villa Taouzert, Ancienne Oasis de. This top-rated Maison d'hôtes is perfect for those who appreciate traditional Moroccan hospitality and offers a cozy ambiance. With a rating of 5.0, it's a highly recommended spot. It's open daily during specific hours, so call 58 085 059 to confirm. For more information, visit the website at https://www.google.com/maps/place/Villa+Taouzert/data=!4m10!3m9!1s0x1257ebccb98f8165:0x470013828ef80bc8!5m2!4m1!1i2!8m2!3d33.9172904!4d8.1476272!16s%2Fg%2F11l1mq987z!19sChIJZYGPuczrVxIRyAv4joITAEc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>If you're seeking a charming and traditionally Moroccan stay in Tozeur, which highly-rated Maison d'hôtes offers a cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site, and immerse yourself in its rich history and architectural treasures.
+Mid-Morning: Visit the PARC CHAK WAK, an educational and recreational complex offering a blend of history, science, and creativity, including dinosaur fossils and a tranquil palm grove.
+Midday: Savor the traditional Tunisian cuisine at Restaurant Le Soleil, renowned for its couscous, dromadaire, chakchouka, and other local delicacies.
+Afternoon: Experience the cultural heritage of Tozeur at Eden Palm, a museum dedicated to date palm cultivation and the flavors of dates and chocolate.
+Evening: Relax and enjoy the picturesque views at Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet, offering serene greenery and a peaceful atmosphere.
+Night: Head to the Sahara Lounge for a unique and budget-friendly outdoor experience, featuring a tyrolienne and a bar lounge surrounded by palm trees.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe Mallorca", a popular cafe located on Avenue 4 Aout 1880 in Tozeur, Tunisia, at coordinates (33.91732548103, 8.126746090487). Boasting a 5.0 rating from 4 reviews, the cafe is open 24 hours a day, 7 days a week. While the website and description are not provided, you can find more details and user-generated content on the provided link.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5127,12 +7478,78 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a relaxing stay, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination is perfect for Hotel lovers and offers a range of amenities to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel in Tozeur, perfect for a relaxing stay with ample amenities?</t>
+          <t>Day Plan:
+Morning:
+- Explore the Medina of Tozeur, a UNESCO World Heritage Site, and immerse yourself in its rich history and architectural wonders.
+Mid-Morning:
+- Visit Musee Dar Cherait, a museum housed within a restored mansion, to delve into Tunisian heritage through ancient artifacts, fine art, and traditional costumes.
+Midday:
+- Savor the delectable flavors of Tozeur at Restaurant De La Republique Tozeur, known for its authentic Tunisian cuisine and dromedary presence.
+Afternoon:
+- Enjoy a relaxing stroll through Parc Abou El Kacem Chebbi, named after the renowned Tunisian poet, and admire its serene natural beauty.
+Evening:
+- Witness the captivating sunset over the desert at Anantara Sahara Tozeur Resort &amp; Villas, a luxurious hotel resort offering stunning views.
+Night:
+- Experience the vibrant atmosphere and aromatic brews at Discover Cafe Garibaldi, a charming cafe nestled in the heart of Tozeur, and indulge in local treats.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5242,14 +7659,71 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination for hotel enthusiasts with a 4.0 rating, located in Tozeur with GPS coordinates 33.9137264, 8.1175387?</t>
+          <t>Day Plan:
+Morning: Explore the UNESCO World Heritage Site, Medina of Tozeur, and delve into its rich history and architectural wonders.
+Mid-Morning: Visit Cafe El Majles, a renowned salon de the traditionnel, and savor traditional Tunisian tea and pastries while soaking in the authentic ambiance.
+Midday: Indulge in a delightful culinary experience at Restaurant Le Soleil, known for its traditional Tunisian cuisine and highly-rated dishes.
+Afternoon: Embark on a guided tour of PARC CHAK WAK, an intriguing museum that showcases the evolution of humanity, the origins of life, and the mysteries of dinosaurs.
+Evening: Enjoy a leisurely stroll through Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet, and appreciate its tranquil beauty.
+Night: Head to Sahara Lounge, a renowned place that offers a blend of nature and entertainment, and unwind in its park-like setting featuring lush palm trees.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Discover the Unnamed Cafe in Tozeur**
+Nestled amidst the enchanting city of Tozeur, the Unnamed Cafe invites you to indulge in a serene and cozy ambiance. Situated at coordinates (33.9214463, 8.1296387), it offers a delightful menu and a welcoming atmosphere that will make your visit unforgettable.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5355,14 +7829,68 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great place to stay, check out Anantara Sahara Tozeur Resort &amp; Villas located at Anantara Sahara Tozeur Resort &amp; Villas, Mrah lahwar 2200, Tozeur. 
-This top-rated destination is perfect for Complexe hotelier lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.900023, 54.33611. For more details, visit their website at https://www.anantara.com/sahara-tozeur%3Futm_source%3DGoogleMyBusiness%26utm_medium%3DGMB%26utm_term%3DTozeur%26utm_content%3DHome%26utm_campaign%3DGoogle_GMB or call them at 70 100 800.</t>
+          <t>Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find the highly-rated Anantara Sahara Tozeur Resort &amp; Villas, a top destination for Complexe hotelier enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina de Tozeur, a historical site with well-preserved architecture and traditional shops.
+Mid-Morning: Trying local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Midday: Visiting Musee Dar Cherait, a museum showcasing Tunisian heritage, including ancient artifacts and fine art.
+Afternoon: Enjoying scenic views at Eden Palm, a cultural heritage museum that explores date palm cultivation and chocolate flavors.
+Evening: Relaxing with a traditional Hammam experience at a local spa or hotel.
+Night: Participating in a cultural event at Le Minaret Ferkous, a restaurant that offers music and a cafe atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sport is a cafe located in Tozeur, Tunisia. It is a great place to relax and enjoy a cup of coffee or tea. The cafe is also known for its friendly staff and its delicious pastries. Cafe Sport is located at the following coordinates: (33.9214463, 8.1296387).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5472,12 +8000,70 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This establishment is perfect for those seeking a hotel experience and offers a range of available services. With a rating of 4.1 out of 5 based on 162 reviews, it's a must-visit spot for travelers. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel in Tozeur that is known for its excellent guest experiences?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Medina of Tozeur, a UNESCO World Heritage Site, and immerse yourself in its captivating history and architecture.
+Mid-Morning: Visit the Mausolee d'Abou El Kacem Chebbi, dedicated to the renowned Tunisian poet, to learn about his life and works.
+Midday: Indulge in a delightful traditional Tunisian lunch at Restaurant Le Soleil, known for its authentic cuisine and welcoming ambiance.
+Afternoon: Experience the unique camping ambiance of L'ilot Palmiers, set amidst a beautiful palm grove, and enjoy a serene and authentic desert experience.
+Evening: Explore the vibrant souks of Tozeur and engage with local artisans, discovering their traditional crafts and savoring the sweet taste of local dates.
+Night: Relax and unwind at the Sahara Lounge, featuring a park-like setting, lush palm trees, and a tranquil ambiance, while enjoying the live entertainment and cultural performances.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5587,12 +8173,68 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This 4.1-rated hotel is perfect for hotel lovers. With 162 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the name of the 4.1-rated hotel with 162 reviews that is considered a must-visit spot in Tozeur, and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the enchanting Medina de Tozeur, a historical site that transports you into the labyrinthine streets of traditional brick houses adorned with intricate doors and arches.
+Mid-Morning: Visit the Musee Dar Cherait, where the ancient artifacts, captivating artwork, and traditional costumes will immerse you in the rich cultural tapestry of the region.
+Midday: Savour the authentic Tunisian flavours at Restaurant Le Soleil. Indulge in couscous, dromadaire, or chakchouka while enjoying the traditional Tunisian ambiance.
+Afternoon: Experience the Saharan heritage at Eden Palm, a cultural heritage museum dedicated to the cultivation of date palms. Discover the delectable flavours of dates harmoniously blended with the rich aromas of chocolate.
+Evening: Unwind with a relaxing camel ride through the picturesque desert landscape. As the sun sets, capture the breathtaking views of the Sahara.
+Night: Enjoy dinner and live entertainment at Le Minaret Ferkous. This highly acclaimed restaurant and cafe offers a delightful ambiance and exceptional cuisine, making it a perfect place to end the day.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5690,14 +8332,75 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great place to stay, check out Hotel Sarra located at W477+CF4 Hotel Sarra, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>What is the highly-rated hotel in Tozeur, conveniently located at specific GPS coordinates, offering a variety of room types?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient Medina de Tozeur, a UNESCO World Heritage Site, and immerse yourself in its rich history and culture.
+**Mid-Morning:**
+* Visit Musee Dar Cherait, a museum housed in a restored mansion, to learn about the local heritage and admire traditional Tunisian costumes.
+**Midday:**
+* Savor a traditional Tunisian lunch at Restaurant Le Soleil, known for its authentic dishes and charming ambiance.
+**Afternoon:**
+* Take a guided tour of Eden Palm, a cultural heritage museum that provides insights into date palm cultivation and the unique flavors of dates and chocolate.
+**Evening:**
+* Enjoy a relaxing evening at Cafe El Majles, a salon de the traditionnel, where you can savor traditional tea and sweets while soaking in the local atmosphere.
+**Night:**
+* Head to the Sahara Lounge for a vibrant night out, offering stunning views of the desert landscape and a range of entertainment options.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5807,12 +8510,75 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a luxurious hotel experience, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination with a rating of 4.0 is perfect for hotel lovers and offers a range of categories to choose from. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated luxury hotel in Tozeur that offers a range of choices with a convenient location?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the Medina de Tozeur, a historical site with well-preserved architecture and traditional shops.
+**Mid-Morning:**
+* Visit the Musee Dar Cherait, showcasing Tunisian heritage through ancient artifacts and costumes.
+**Midday:**
+* Try local cuisine at Restaurant La Medina, highly rated for its reasonable prices and variety of dishes.
+**Afternoon:**
+* Relax at Eden Palm, a cultural heritage museum blending the flavors of dates and chocolate.
+**Evening:**
+* Enjoy scenic views at Parc Abou El Kacem Chebbi, a serene park with lush greenery and blooming flowers.
+**Night:**
+* Experience a relaxing atmosphere at the Sahara Lounge, a bar lounge offering stunning views and activities for families.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5922,12 +8688,74 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great hotel, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination is perfect for Hotel lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel with a 4.0 rating and GPS coordinates of 33.9137264, 8.1175387, ideal for those interested in hotels?</t>
+          <t>**Day Plan:**
+**Morning:**
+- **Visit Cafe de L'independance:** Start the day with a coffee and traditional breakfast at this highly-rated cafe.
+**Mid-Morning:**
+- **Explore the Medina de Tozeur:** Wander through the narrow streets and alleys of this historical site, admiring the preserved architecture and visiting local shops.
+**Midday:**
+- **Try local cuisine at Restaurant De La Republique Tozeur:** Indulge in authentic Tunisian dishes at this popular restaurant, known for its dromedary.
+**Afternoon:**
+- **Relax at PARC CHAK WAK:** Escape the heat at this educational museum, with exhibits on science, history, and dinosaurs.
+**Evening:**
+- **Enjoy scenic views at Cafe El Majles:** Sip on a relaxing tea at this renowned salon de thé, offering panoramic city views.
+**Night:**
+- **Experience cultural immersion at Eden Palm:** Learn about date cultivation and savor the flavors of dates and chocolate at this cultural museum.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6033,14 +8861,69 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in tozeur, check out Anantara Sahara Tozeur Resort &amp; Villas located at Mrah lahwar 2200, Tozeur.
- This top-rated destination is perfect for Complexe hotelier lovers.
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.900023, 54.33611. For more details, visit their website at https://www.anantara.com/sahara-tozeur%3Futm_source%3DGoogleMyBusiness%26utm_medium%3DGMB%26utm_term%3DTozeur%26utm_content%3DHome%26utm_campaign%3DGoogle_GMB or call them at 70 100 800.</t>
+          <t>Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated destination in Tozeur, Tunisia, that is perfect for Complexe hotelier lovers?</t>
+          <t>Day Plan:
+Morning: Visiting Médina de Tozeur, a historical site known for its charm and authenticity.
+Mid-Morning: Enjoying local cuisine at Restaurant La Medina, known for its highly rated dishes and reasonable prices.
+Midday: Taking a guided tour of Musée Dar Cherait, a museum featuring exhibits on Tunisian history and culture.
+Afternoon: Relaxing with a traditional tea at Cafe El Majles, a salon de the traditionnel with a highly acclaimed rating.
+Evening: Trying local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Night: Exploring the night market and experiencing the vibrant atmosphere of Tozeur.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6150,12 +9033,68 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a comfortable stay, consider Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This top-rated hotel is perfect for those seeking a relaxing getaway and offers a range of amenities to choose from. With a rating of 4.1, it's a must-visit spot for travelers. It's open 24/7. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel called Residence l'Oued in Tozeur, perfect for relaxation and boasting an impressive range of amenities?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site, and step back in time.
+Mid-Morning: Visit Musée Dar Cherait for insights into Tunisian history and culture.
+Midday: Indulge in a traditional lunch at Restaurant De La Republique Tozeur, famous for its authentic Tunisian dishes and a unique dromedary attraction.
+Afternoon: Unwind and rejuvenate with a relaxing spa treatment at Residence l'Oued.
+Evening: Take a leisurely walk through Parc Abou El Kacem Chebbi, admiring the lush greenery and tranquil atmosphere.
+Night: Dine under the stars at Le Minaret Ferkous, a highly-acclaimed restaurant with an exceptional ambiance and signature cuisine.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6261,14 +9200,76 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Diar Abou Habibi located at W46W+478 Diar Abou Habibi, Rte des Touaregs, Tozeur. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.diarhabibi.com/ or call them at 76 460 270.</t>
+          <t>Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a selection of Maison d'hotes, located at W46W+478 Diar Abou Habibi, Rte des Touaregs, Tozeur, and boasting a 4.5 rating?</t>
+          <t>Day Plan:
+Morning:
+- [Exploring] Medina de Tozeur, immerse yourself in the charm and authenticity of the old city with its labyrinthine streets, traditional architecture, and vibrant marketplaces.
+Mid-Morning:
+- [Trying local cuisine] at Restaurant Tisouros, known for its cooperative experience and affordable prices, savor the flavors of traditional Tunisian dishes.
+Midday:
+- [Visiting] the Musee Dar Cherait, delve into the history and culture of the region through captivating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes.
+Afternoon:
+- [Enjoying] the serene ambiance of Parc Abou El Kacem Chebbi, relax amidst lush greenery, blooming flowers, and tranquil pathways while admiring the beauty of nature.
+Evening:
+- [Participating] in the lively atmosphere of the Sahara Lounge, unwind with a drink surrounded by nature, indulge in the breathtaking views, and enjoy family-friendly activities like tyrolienne.
+Night:
+- [Experiencing cultural immersion] at Cafe El Majles, a renowned salon de the traditionnel, enjoy a blend of tradition and modernity with a cup of coffee or traditional tea while immersing yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café de Paris, located in Tozeur (long: 8.1296387, lat: 33.9214463), offers a cozy ambiance for enjoying a cup of coffee or indulging in other cafe delights.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6378,12 +9379,71 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a charming Maison d'hotes, check out Dar Tozeur located at El Hawadef 2200. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Hotel bien-etre, Restaurant, Institut de massages and Spa. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website at http://www.dartozeur.com/ or call them at 98 318 252.</t>
+          <t>Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>If you're searching for a highly-rated Maison d'hotes in Tozeur, which offers a variety of categories and has received a 4.3 rating, located at GPS coordinates 33.9191699, 8.1292337, where should you go?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, a UNESCO World Heritage Site, and admire its traditional architecture and vibrant marketplaces.
+Mid-Morning: Visit the Musee Dar Cherait, which houses a fascinating collection of ancient artifacts and artwork.
+Midday: Try local Tunisian cuisine at Restaurant Le Soleil, known for its traditional dishes like couscous and chakchouka.
+Afternoon: Indulge in a relaxing spa treatment at Diar Aroma Lounge, rated 5.0 based on reviews.
+Evening: Enjoy a cultural performance at Cafe El Majles, which offers a traditional salon de the experience.
+Night: Experience the vibrant nightlife at Sahara Lounge, known for its stunning views and live music.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera is a highly-rated cafe located in Tozeur, Tunisia. It offers a wide variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur, and is open from 6:00 AM to midnight.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6493,12 +9553,75 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in tozeur, Maison D'hotes Dar Saida Beya is a top-rated destination for Maison d'hotes lovers, located at W49P+HFM Rue Ahmed El Ayech, Tozeur 2200. It offers a range of categories to choose from, including Maison d'hotes. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at http://www.darsaidabeya.com/ or call them at 25 566 066.</t>
+          <t>**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find Maison D'hotes Dar Saida Beya, a highly-rated destination with a 4.7 rating for Maison d'hotes?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Medina of Tozeur, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Visit the PARC CHAK WAK museum for a captivating blend of history, science, and creativity.
+**Midday:**
+- Savor a traditional Tunisian lunch at Restaurant De La Republique Tozeur.
+**Afternoon:**
+- Relax and enjoy a camel ride through the desert dunes at Sahara Lounge.
+**Evening:**
+- Experience cultural immersion at Dar Ezzahra, a charming guest house with traditional architecture.
+**Night:**
+- Indulge in an exotic dinner at Restaurant Pizzeria Azzoura, known for its authentic Italian flavors.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sport is a cafe located in Tozeur, Tunisia. It is a great place to relax and enjoy a cup of coffee or tea. The cafe is also known for its friendly staff and its delicious pastries. Cafe Sport is located at the following coordinates: (33.9214463, 8.1296387).
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6604,15 +9727,69 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Nestled amidst the captivating city of Tozeur, Dar Yomma stands as a haven for those seeking tranquility and authentic hospitality. This charming maison d'hôtes has earned a stellar reputation among travelers.
-Within its idyllic walls, you'll find a sanctuary designed for relaxation. The guest rooms are thoughtfully appointed, offering a serene haven to unwind in.
-With a rating of an impressive 4.9, Dar Yomma is a must-visit destination in Tozeur. Immerse yourself in the ambiance of this enchanting haven and indulge in the warmth of exceptional service.
-To plan your visit, reach out to them directly at 51 024 509 or visit their website at https://daryommatozeur.wixsite.com/maison. Their friendly staff will be delighted to assist you in creating an unforgettable experience at Dar Yomma.</t>
+          <t>Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Question: Where can you find a tranquil oasis with an exceptional rating nestled amidst the vibrant alleys of Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a historical site known for its preserved architecture and vibrant market.
+Mid-Morning: Visit the Musée Dar Cherait to delve into local history and culture through ancient artifacts and traditional costumes.
+Midday: Try traditional Tunisian cuisine at Restaurant Le Soleil, renowned for its couscous, chakchouka, and grillades dishes.
+Afternoon: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park offering a serene setting for relaxation and leisure strolls.
+Evening: Participate in the tyrolienne activity at the Sahara Lounge, providing an exhilarating experience amidst a relaxing atmosphere.
+Night: Indulge in delicious crepes at Yam Yam Tozeur while savoring its perfect 5.0 rating and friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Paris is located in Tozeur, Tunisia, and has a rating of 4.1. The cafe is open from 6 AM to 11:59 PM every day and offers a variety of services, including food, drinks, and Wi-Fi. The cafe is also located near several attractions, including the Medina of Tozeur and the Grand Mosque of Tozeur.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6718,14 +9895,70 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and searching for a unique experience, head to L'ilot Palmiers, nestled on W45W+78 L'ilot Palmiers, Rte des Touaregs. 
-As a top-rated Camping avec cabanes destination with a remarkable 4.6 rating, this gem offers a range of unforgettable experiences. 
-For more details, visit their website at https://www.lilotpalmier.com/ or call 56 307 308.</t>
+          <t>L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.6) camping experience with cabins in Tozeur, Tunisia, offering unique experiences?</t>
+          <t>Day Plan:
+Morning: A leisurely walk through the Medina de Tozeur, exploring the ancient streets and traditional architecture.
+Mid-Morning: Visit the PARC CHAK WAK museum for a glimpse into the region's history and culture, and enjoy the serene atmosphere.
+Midday: Relish a traditional Tunisian lunch at Harissa &amp; Lablebi, savoring the flavors of the local cuisine.
+Afternoon: Take a guided tour of the Anantara Sahara Tozeur Resort &amp; Villas, admiring the luxurious villas and stunning views of the desert landscape.
+Evening: Experience a relaxing and rejuvenating spa treatment at Maison D'hotes Dar Saida Beya, indulging in the ultimate pampering.
+Night: Explore the bustling atmosphere of Cafeteria l'Escale, sampling the local café culture and enjoying a light dinner.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6827,12 +10060,69 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated Villa experience, check out Dar Ezzahra located at W4MJ+GR Dar Ezzahra, Tozeur. With a rating of 4.3, this must-visit spot is perfect for Villa lovers. Call them at 25 508 203 for more details.</t>
+          <t>Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find the highly acclaimed Dar Ezzahra Villa with a 4.3 rating in Tozeur?</t>
+          <t>Day Plan:
+Morning: Stroll through the captivating Medina de Tozeur, a UNESCO World Heritage Site, and marvel at the traditional architecture and vibrant atmosphere.
+Mid-Morning: Visit the Maison Des Poissons Tozeur, a local seafood market, to enjoy the fresh catch of the day and soak in the daily market scene.
+Midday: Savor a delicious Tunisian lunch at Restaurant De La Republique Tozeur, renowned for its traditional dishes and friendly service.
+Afternoon: Explore the Sahara Lounge, a bar lounge nestled amidst nature, and take in the stunning views of the surrounding landscape while enjoying a refreshing drink.
+Evening: Head to Cafe El Majles, a beloved salon de the traditionnel, to indulge in aromatic brews and delectable treats while immersing yourself in the local ambiance.
+Night: Experience the vibrant atmosphere of Resto Cafe El Berka, a well-rated restaurant known for its diverse menu and outdoor dining options.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6934,12 +10224,76 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in tozeur, check out Villa Taouzert located at Villa Taouzert, Ancienne Oasis de, Tozeur 2200. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website or call them at 58 085 059.</t>
+          <t>Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Tozeur offers a range of categories for Maison d'hotes lovers and is perfect for those who appreciate 5-star accommodations?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore Medina de Tozeur:** Step into the ancient streets and admire the intricate architecture of this UNESCO World Heritage Site.
+**Mid-Morning:**
+* **Try local cuisine at Café de Paris:** Indulge in aromatic coffee and traditional Tunisian delights while soaking in the cozy ambiance.
+**Midday:**
+* **Visit Musee Dar Cherait:** Immerse yourself in the rich cultural heritage of the region at this museum showcasing ancient artifacts and traditional costumes.
+**Afternoon:**
+* **Enjoy a picnic at Parc Abou El Kacem Chebbi:** Relax amidst lush greenery and blooming flowers while enjoying a leisurely meal surrounded by nature's beauty.
+**Evening:**
+* **Participate in cultural workshops at Dar Ezzahra Guest House:** Learn traditional crafts and immerse yourself in the unique customs of the region.
+**Night:**
+* **Dine at Restaurant Pizzeria Azzoura:** Savor authentic Italian cuisine and unwind in the vibrant atmosphere of this popular restaurant.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café de Paris, located in Tozeur (long: 8.1296387, lat: 33.9214463), offers a cozy ambiance for enjoying a cup of coffee or indulging in other cafe delights.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7037,13 +10391,75 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a restful stay, discover Diar Aroma Lounge situated at W486+HHC Diar Aroma Lounge, Route touristique, Tozeur 2200. 
-This top-rated residence hoteliere has a rating of 5.0 and is a haven for those seeking a peaceful retreat. Contact them at 96 514 748 for inquiries.</t>
+          <t>Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a restful retreat in Tozeur, renowned for its top-rated ambiance and tranquility?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical **Medina de Tozeur**, immersing yourself in its charming streets and vibrant marketplaces.
+**Mid-Morning:**
+* Visit **Mausolee d'Abou El Kacem Chebbi**, honoring the renowned Tunisian poet and admiring the museum's collection.
+**Midday:**
+* Delight in an authentic Tunisian lunch at **Restaurant De La Republique Tozeur**, savoring local flavors like couscous and grilled meats.
+**Afternoon:**
+* Engage in adventure at **L'ilot Palmiers**, experiencing the unique desert environment with a camel ride or quad biking.
+**Evening:**
+* Ascend to **Parc Abou El Kacem Chebbi** for panoramic city views while indulging in a leisurely stroll through its serene pathways.
+**Night:**
+* Relax and unwind at **The Sahara Lounge**, sipping on refreshments and enjoying the stunning desert landscape from the comfort of its lounge chairs.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Berbere is a 5-star rated cafe located in Ouled El Hadef, Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It offers a pleasant atmosphere with music, shisha, and a variety of drinks, including the popular "the a la menthe," orange juice, and lemonade. The cafe's terrace provides a delightful setting to enjoy refreshments and relax amid the town's ambiance.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7141,13 +10557,69 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated hotel, check out Hotel Sarra located at W477+CF4 Hotel Sarra, Rte Touristique. This 4.0-rated destination is perfect for Hotel lovers. To get there, use these GPS coordinates: 33.9214463, 8.1296387. 
-For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+Sarra/data=!4m10!3m9!1s0x1257eb0031587279:0x941c7a47237b13c8!5m2!4m1!1i2!8m2!3d33.9135125!4d8.1137031!16s%2Fg%2F11vpv2w2wh!19sChIJeXJYMQDrVxIRyBN7I0d6HJQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated hotel in Tozeur, known for its proximity to a popular attraction?</t>
+          <t>Day Plan:
+Morning: Explore the historical and architectural wonders of the Medina of Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Immerse yourself in local culture and traditional crafts at the vibrant souks of Tozeur.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Le Soleil, known for its delectable couscous and traditional dishes.
+Afternoon: Embark on a guided tour of the Musee Dar Cherait to gain insights into the rich history and culture of Tunisia.
+Evening: Relax and rejuvenate with a traditional hammam experience at a local spa or hotel.
+Night: Experience the lively atmosphere of the Sahara Lounge, offering stunning views of the desert landscape and a range of entertainment options.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7257,12 +10729,68 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find Residence l'Oued, a top-rated hotel destination ideal for hotel enthusiasts in Tozeur?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a UNESCO World Heritage Site that transports visitors to a bygone era.
+Mid-Morning: Trying local cuisine at Restaurant Les Arcades, known for its couscous, lamb, and vegetarian options.
+Midday: Visiting Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of one of Tunisia's most famous poets.
+Afternoon: Enjoying a relaxing swim at Anantara Sahara Tozeur Resort &amp; Villas.
+Evening: Participating in a cultural immersion at Eden Palm, a cultural heritage museum that offers a captivating exploration of date palm cultivation and the delectable flavors of dates.
+Night: Experiencing the vibrant ambiance of Sahara Lounge, a bar lounge offering stunning views of the surrounding landscape and featuring live music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a cafe located in Tozeur, Tunisia, offering a cozy ambiance and a variety of coffee and tea beverages. Customers can unwind and enjoy their drinks while taking in the surroundings. The cafe operates daily from 5:30 AM to midnight, providing ample time for locals and visitors alike to visit and indulge in its offerings.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7364,14 +10892,70 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef. 
-This top-rated destination is perfect for Site historique and Attraction touristique lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated spot with categories tailored to Site historique and Attraction touristique enthusiasts in Tozeur?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the well-preserved Medina de Tozeur, admiring its traditional architecture and vibrant market.
+Mid-Morning: Head to Cafe El Majles for a traditional Tunisian breakfast and coffee break amidst a cozy ambiance.
+Midday: Visit the fascinating Musee Dar Cherait to gain insights into the history and culture of Tunisia through its exhibits on traditional costumes, art, and objects.
+Afternoon: Engage in a guided tour of the Eden Palm museum to learn about the significance of date palm cultivation and savor delectable date flavors blended with chocolate aromas.
+Evening: Experience the vibrant atmosphere of the Sahara Lounge, a park-like setting with lush palm trees and entertainment options such as a playground and a zip line for kids.
+Night: Indulge in a memorable dining experience at Restaurant Pizzeria Azzoura, offering a variety of authentic Italian dishes amidst a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7473,12 +11057,78 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for fresh and delicious seafood, then Maison Des Poissons Tozeur is a great choice. This top-rated destination is located at W4FP+CPQ Maison Des Poissons Tozeur, P3, Tozeur. With a rating of 5.0, it's a must-visit spot for seafood lovers. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated seafood restaurant in Tozeur that boasts a 5.0 rating and is easily accessible by GPS?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Medina de Tozeur, a historical site with charming streets and traditional architecture.
+**Mid-Morning:**
+- Visit the Musee Dar Cherait, a museum showcasing ancient artifacts and traditional Tunisian costumes.
+**Midday:**
+- Try local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+**Afternoon:**
+- Take a guided tour of the Parc Abou El Kacem Chebbi, a serene park with lush greenery and blooming flowers.
+**Evening:**
+- Enjoy a scenic walk along the shores of the Anantara Sahara Tozeur Resort &amp; Villas.
+**Night:**
+- Relax with a tyrolienne ride at the Sahara Lounge, a bar lounge with stunning views of palm trees.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Discover the Unnamed Cafe in Tozeur**
+Nestled amidst the enchanting city of Tozeur, the Unnamed Cafe invites you to indulge in a serene and cozy ambiance. Situated at coordinates (33.9214463, 8.1296387), it offers a delightful menu and a welcoming atmosphere that will make your visit unforgettable.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7580,12 +11230,69 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a historical site to visit, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. This top-rated destination is perfect for history buffs and offers a range of attractions to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated historical site perfect for history enthusiasts in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, admiring the traditional architecture and vibrant marketplaces.
+Mid-Morning: Visit the Musee Dar Cherait to immerse yourself in the rich cultural tapestry of the region.
+Midday: Indulge in a delightful lunch at Restaurant Le Soleil, renowned for its authentic Tunisian cuisine.
+Afternoon: Head to the L'ilot Palmiers camping site for a unique desert experience, surrounded by beautiful palm trees.
+Evening: Enjoy a captivating performance of traditional music and dance at the Sahara Lounge.
+Night: Relax and unwind at the luxurious HÔTEL RAS EL AIN TOZEUR, savoring its elegant ambiance and modern amenities.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7687,14 +11394,68 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>What top-rated destination in Tozeur offers an array of historical sites and attractions for Site historique enthusiasts, with a 4.5 rating and convenient 24-hour access?</t>
+          <t>Day Plan:
+Morning: Explore the labyrinthine alleys of the Medina of Tozeur, a UNESCO World Heritage Site, and discover its intricate architecture and vibrant souks.
+Mid-Morning: Indulge in authentic Tunisian cuisine at Restaurant Le Soleil, known for its traditional dishes and cozy ambiance.
+Midday: Visit the enchanting Musee Dar Cherait, housed in a restored mansion, showcasing historical artifacts and traditional Tunisian costumes.
+Afternoon: Immerse yourself in the rich flavors of dates and chocolate at Eden Palm, a cultural heritage museum that educates about date palm cultivation.
+Evening: Relax and enjoy the scenic views at Parc Abou El Kacem Chebbi, a tranquil park with lush greenery and peaceful pathways.
+Night: Experience a lively atmosphere at The Sahara Lounge, a bar lounge nestled in nature that offers stunning views and a memorable tyrolienne ride.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7800,14 +11561,74 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a fun and educational day out, head to PARC CHAK WAK at W46W+JJ5 PARC CHAK WAK.
-This top-rated destination is perfect for museum lovers and offers a range of categories to choose from, including museums, parks, and tourist attractions.
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.9111365, 8.1453131. For more details, visit their website at https://www.google.com/maps/place/PARC+CHAK+WAK/data=!4m7!3m6!1s0x1257c03b7a13d2c1:0x7a5a4ac8a0020901!8m2!3d33.9115125!4d8.1466094!16s%2Fg%2F11f3w6llmw!19sChIJwdITejvAVxIRAQkCoMhKWno?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 460 400.</t>
+          <t>PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you discover a top-rated destination that combines museums, parks, and tourist attractions for a unique and educational experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the UNESCO World Heritage Site, **Medina de Tozeur**, marveling at its ancient architecture and bustling markets.
+**Mid-Morning:**
+* Indulge in local cuisine at the highly-rated **Restaurant Le Soleil**, known for its traditional Tunisian dishes.
+**Midday:**
+* Visit the **PARC CHAK WAK**, a captivating museum that blends history, science, and creativity, showcasing the evolution of humanity and the mysteries of dinosaurs.
+**Afternoon:**
+* Enjoy scenic views and outdoor activities at **Sahara Lounge**, a bar lounge with a lush park and leisure center offering tyrolienne and other attractions.
+**Evening:**
+* Experience cultural immersion at **Eden Palm**, a museum that celebrates date palm cultivation and the flavors of dates fused with chocolate.
+**Night:**
+* Relax and unwind at **Anantara Sahara Tozeur Resort &amp; Villas**, a luxury hotel resort offering serene desert views and a range of amenities for a perfect end to the day.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7921,12 +11742,74 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musée lovers and offers a range of Musée to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on undefined. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>What is the must-visit Musée destination with a high rating that is perfect for Musée lovers and offers a wide selection in the Tozeur area?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Visiting **Medina de Tozeur**, a UNESCO World Heritage Site, to explore its ancient architecture and vibrant culture.
+**Mid-Morning:**
+- Trying local cuisine at **Restaurant Le Soleil**, a traditional Tunisian restaurant known for its delicious couscous and dromadaire.
+**Midday:**
+- Enjoying scenic views at the **Statue d'Ibn Chabbat**, a well-known sculpture offering beautiful desert landscapes.
+**Afternoon:**
+- Relaxing with a swim at the **L'ilot Palmiers** camping site, surrounded by a beautiful palm grove.
+**Evening:**
+- Experiencing cultural immersion at **Musee Dar Cherait**, a museum showcasing Tunisian heritage through ancient artifacts and art.
+**Night:**
+- Participating in a camel ride and dinner at **The Sahara Lounge**, a bar lounge with stunning sunset views and traditional Bedouin experiences.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8036,14 +11919,68 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Eden Palm located at Chem. de l'Ancienne Oasis, Tozeur. 
-This top-rated destination is perfect for Heritage Museum lovers and offers a range of Heritage Museum to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on None. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>What is the top-rated Heritage Museum destination with a 4.3 rating in Tozeur, known for its variety of Heritage Museums?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site, and delve into its rich history and architectural marvels.
+Mid-Morning: Visit the Musee Dar Cherait for a glimpse into Tunisian history and culture, showcasing traditional costumes, art, and artifacts.
+Midday: Savor local flavors at Restaurant Les Arcades, known for its delectable couscous, succulent meats, and vegetarian options.
+Afternoon: Relax and rejuvenate at The Sahara Lounge, offering stunning desert views, a refreshing pool, and a range of recreational activities like camel rides and hiking.
+Evening: Explore the vibrant souks of the Medina of Tozeur, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates.
+Night: Experience a captivating traditional performance at Cafe El Majles, a renowned salon de the traditionnel, blending tradition and modernity with live music and authentic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8145,12 +12082,70 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out the historical site of Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique and Attraction touristique. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a top-rated historical site ideal for Site historique enthusiasts, showcasing a range of categories and featuring an impressive rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Tozeur
+Mid-Morning: Visiting the Musee Dar Cherait
+Midday: Trying local cuisine at Restaurant De La Republique Tozeur
+Afternoon: Relaxing with a swim at the Sahara Lounge
+Evening: Enjoying a camel ride at the Sahara Lounge
+Night: Experiencing cultural immersion at the Diwan Tozeur folk music event</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Zouba is a cafe located in Tozeur, Tunisia. It is rated 4.0 out of 5 stars with 5 reviews. The cafe offers a variety of coffee and tea drinks, as well as pastries and other snacks. It is located at W4CP+F8J Cafe Zouba, Tozeur.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8252,12 +12247,68 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for an interesting cultural experience, visit Mausolee d'Abou El Kacem Chebbi located at W47H+MF5. This top-rated local museum is perfect for history and culture lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Monday and Sunday. To get there, use these GPS coordinates: 33.91717636496, 8.133063786585.</t>
+          <t>Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated local museum in Tozeur that offers a remarkable cultural experience, boasting a 4.6 rating and attracting history and culture enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Tozeur
+Mid-Morning: Visiting Musee Dar Cherait
+Midday: Trying local cuisine at Restaurant Le Soleil
+Afternoon: Enjoying scenic views at Parc Abou El Kacem Chebbi
+Evening: Participating in a tyrolienne (zip-lining) activity at Sahara Lounge
+Night: Experiencing cultural immersion at Cafe El Majles</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a cafe located in Tozeur, Tunisia at (33.9214463, 8.1296387). It offers a cozy ambiance to relax and enjoy its variety of drinks and snacks. The cafe opens from 5:30 AM to midnight.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8355,13 +12406,68 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Parc Abou El Kacem Chebbi located at W489+2RC Parc Abou El Kacem Chebbi, Rte Touristique, Tozeur
-This top-rated destination is perfect for Parc commemoratif lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Parc+Abou+El+Kacem+Chebbi/data=!4m7!3m6!1s0x1257ebc645deb0d5:0x1dc177c35d5d3071!8m2!3d33.9150616!4d8.1195305!16s%2Fg%2F11s7yspnjj!19sChIJ1bDeRcbrVxIRcTBdXcN3wR0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where can you find Parc Abou El Kacem Chebbi, a top-rated destination for Parc commemoratif enthusiasts in Tozeur?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the Medina de Tozeur, a well-preserved historical site with charming architecture and traditional shops.
+**Mid-Morning:** Visit the Musee Dar Cherait, a beautifully renovated mansion that showcases Tunisian heritage through artifacts, artwork, and costumes.
+**Midday:** Lunch at Restaurant De La Republique Tozeur, known for its Tunisian dishes and dromadaire and poulet specialties.
+**Afternoon:** Enjoy a scenic stroll through Parc Abou El Kacem Chebbi, a commemorative park with lush greenery and tranquil pathways.
+**Evening:** Visit the Sahara Lounge, a popular spot with stunning views of the desert landscape, offering a relaxing atmosphere and a variety of amenities.
+**Night:** Indulge in a local cuisine dinner at Pizzeria krabaa, a fast food restaurant offering delicious pizzas and other fast food items.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8463,12 +12569,74 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Statue d'Ibn Chabbat located at Statue d'Ibn Chabbat, Ave Farhat Hached, Tozeur. This top-rated destination is perfect for Sculpture lovers and offers a range of Sculpture to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.92100958622, 8.117383840332. For more details, visit their website at https://www.google.com/maps/place/Statue+d%27Ibn+Chabbat/data=!4m7!3m6!1s0x1257ebe5f3e4b36f:0x876b097a41c804b4!8m2!3d33.9216321!4d8.1310593!16s%2Fg%2F11mvp5s09p!19sChIJb7Pk8-XrVxIRtATIQXoJa4c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Sculpture destination in Tozeur that offers a range of Sculpture to choose from and is open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Medina de Tozeur: Discover the charm and authenticity of this historical site, admiring traditional architecture and vibrant markets.
+**Mid-Morning:**
+- Visit Eden Palm: Immerse yourself in the rich flavors of dates and chocolate while learning about date palm cultivation.
+**Midday:**
+- Try local cuisine at Restaurant Le Soleil: Savor traditional Tunisian dishes in a cozy and authentic 4.2-star restaurant.
+**Afternoon:**
+- Relax at Sahara Lounge: Unwind with stunning desert views, enjoy a swim, or engage in desert activities like camel rides.
+**Evening:**
+- Visit Parc Abou El Kacem Chebbi: Stroll through serene greenery, appreciate blooming flowers, and soak in the beauty of this commemorative park.
+**Night:**
+- Enjoy scenic views at Statue d'Ibn Chabbat: Capture breathtaking sunset panoramas and admire the famous sculpture in Avenue Farhat Hached.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jet 7 Coffee is a cafe located at (33.922278911821, 8.133354898631) in Tozeur. It is open 24 hours and offers a variety of coffee, tea, and other beverages. The cafe also offers a selection of pastries and sandwiches.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8582,14 +12750,70 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cultural experience, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated museum is perfect for history and culture enthusiasts and offers a range of exhibits to choose from. 
-With a rating of 4.2, it's a must-visit spot for those interested in the history and culture of Tunisia. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>If you crave a cultural immersion in Tozeur, what highly acclaimed museum featuring captivating historical exhibits should you visit?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a labyrinthine historical site with traditional architecture and vibrant marketplaces.
+Mid-Morning: Immerse yourself in the fascinating exhibits at PARC CHAK WAK, a museum showcasing the evolution of humanity, science, and dinosaurs.
+Midday: Indulge in local cuisine at Restaurant Le Soleil, known for its traditional Tunisian dishes like couscous and chakchouka.
+Afternoon: Take a guided tour of Eden Palm, a heritage museum focusing on local products and culture, where you can learn about palm trees and sample date tastings.
+Evening: Experience the charming atmosphere of Cafe La Rosa, a top-rated cafe with a lively ambiance, perfect for relaxing and unwinding.
+Night: Head to Restaurant Les Arcades for a delightful dinner, savoring their renowned couscous and succulent dishes.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8703,12 +12927,72 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on none. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Chera%C3%AFt/data=!4m7!3m6!1s0x1257c0294234b9b7:0xe178150573ada919!8m2!3d33.9131625!4d8.1206094!16s%2Fg%2F1223q96c!19sChIJt7k0QinAVxIRGamtcwUVeOE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 452 100.</t>
+          <t>Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated destination for Musee enthusiasts with exceptional ratings and a wide variety of attractions to explore?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina de Tozeur
+Mid-Morning: Trying local cuisine at Restaurant La Medina
+Midday: Visiting the Musee Dar Cherait
+Afternoon: Enjoying recreational activities at Parc Abou El Kacem Chebbi
+Evening: Relaxing with a traditional tea at Cafe El Majles
+Night: Participating in a cultural event at the Sahara Lounge</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8822,12 +13106,70 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in tozeur, searching for captivating cultural experiences, head to Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique. This highly-rated spot, with a rating of 4.2, is a perfect fit for art and history enthusiasts and offers a enthralling glimpse into Tunisian culture and heritage. Immerse yourself in the museum's collection of traditional costumes, intriguing artworks, and ancient artifacts, gaining valuable insights into the region's rich past. Open every day from 08:00-22:00, the museum provides ample time to explore its treasures. For more information, visit their website at https://m.facebook.com/darcheraittozeur/ or dial them at 76 452 100.</t>
+          <t>The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a captivating cultural experience in Tozeur featuring traditional costumes, artworks, and ancient artifacts in a highly rated museum with a convenient daily schedule?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Tozeur, wandering through its charming streets and admiring the traditional architecture.
+Mid-Morning: Indulge in a delectable Tunisian breakfast at Bonzai Lounge Coffee, known for its cozy ambiance and highly-rated menu.
+Midday: Visit Restaurant Le Soleil, renowned for its authentic Tunisian cuisine, and savor the flavors of couscous and traditional dishes.
+Afternoon: Relax and rejuvenate at Dar Tozeur, an elegant guesthouse offering a tranquil garden and a refreshing swimming pool.
+Evening: Embark on a culinary adventure at Maison Des Poissons Tozeur, a seafood market offering a symphony of flavors and aromas.
+Night: Experience the vibrant atmosphere of the Sahara Lounge, a unique blend of nature and entertainment featuring a park-like setting and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8933,12 +13275,68 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in Tozeur seeking an intriguing escapade, explore PARC CHAK WAK, situated at W46W+JJ5 PARC CHAK WAK. Acclaimed for its historical museum and engaging exhibits, it's an ideal destination for all museum enthusiasts. With an impressive 4.2 rating, it's a must-visit spot. Its operating hours are from 08:00 to 00:00 every day. To reach this fascinating destination, use these GPS coordinates: 33.9111365, 8.1453131. For further information, contact them at 76 460 400.</t>
+          <t>PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you immerse yourself in history and culture at a renowned museum with exceptional exhibits and a high visitor rating?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site with a labyrinth of narrow alleys and stunning desert architecture.
+Mid-Morning: Try local Tunisian cuisine at Restaurant Le Soleil, known for its traditional dishes like couscous, chakchouka, and grillades.
+Midday: Visit the Museum of PARC CHAK WAK, featuring a unique combination of exhibits on the history of humanity, evolution, and natural wonders.
+Afternoon: Enjoy scenic views at the desert oasis of L'ilot Palmiers, offering a camping experience amidst a beautiful palm grove.
+Evening: Relax with a rejuvenating spa treatment and indulge in luxurious amenities at Anantara Sahara Tozeur Resort &amp; Villas.
+Night: Participate in a thrilling camel ride or quad biking adventure organized by the Sahara Lounge, offering a memorable exploration of the surrounding desert landscape.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9048,14 +13446,68 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cultural experience, check out Eden Palm located at Chem. de l'Ancienne Oasis. 
-This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.eden-palm.com/ or call them at 58 085 059.</t>
+          <t>Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you visit a cultural spot known as Eden Palm that caters to Musee du patrimoine enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur for its historical charm and local shops.
+Mid-Morning: Visit the Eden Palm cultural heritage museum for insights into date palm cultivation and the history of chocolate.
+Midday: Enjoy a traditional Tunisian meal at Restaurant De La Republique Tozeur.
+Afternoon: Stroll through Parc Abou El Kacem Chebbi, a beautiful garden in the center of the city.
+Evening: Indulge in an authentic camping experience at L'ilot Palmiers, where you can spend the night under the stars.
+Night: Relax and unwind at the Sahara Lounge, offering breathtaking desert views and a tranquil atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9169,14 +13621,69 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for museum lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Monday-Sunday 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated museum with various categories to explore in Tozeur?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a UNESCO World Heritage Site and a captivating maze of narrow alleys, traditional brick houses, and vibrant colors.
+Mid-Morning: Visiting Musee Dar Cherait, a fascinating museum housed in a restored mansion, showcasing Tunisian heritage, ancient artifacts, and traditional costumes.
+Midday: Trying local cuisine at Restaurant Le Soleil, a traditional Tunisian restaurant offering mouthwatering couscous, dromadaire, and chakchouka.
+Afternoon: Engaging in outdoor activities at Parc Abou El Kacem Chebbi, a commemorative park with lush greenery, blooming flowers, and tranquil pathways.
+Evening: Taking a guided tour of Gare de train, a transit hub steeped in history and providing a glimpse into the region's transportation system.
+Night: Relaxing with a tranquil swim at The Sahara Lounge, a bar lounge offering stunning views of the surrounding desert landscape.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9290,14 +13797,70 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated destination with a variety of options, perfect for those who enjoy Musee activities?</t>
+          <t>Day Plan:
+Morning: Exploring the enchanting Medina de Tozeur
+Mid-Morning: Trying local cuisine at Restaurant De La Republique Tozeur
+Midday: Visiting the historic Musée Dar Cherait
+Afternoon: Enjoying a relaxing soak in the outdoor swimming pool at Diar Abou Habibi
+Evening: Participating in a traditional desert excursion at Anantara Sahara Tozeur Resort &amp; Villas
+Night: Experiencing cultural immersion at the Sahara Lounge</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9411,12 +13974,68 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>What top-rated destination in Tozeur, perfect for "Musee" enthusiasts with a rating of 4.2, offers a variety of "Musee, Attraction touristique" experiences?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Tozeur, a UNESCO World Heritage Site. Wander through the narrow brick alleys, admire the intricate doors, and discover the traditional crafts of the local artisans.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully renovated mansion that showcases the rich cultural heritage of the region. Immerse yourself in the ancient artifacts, captivating artwork, and traditional costumes on display.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant Tisouros, known for its cooperative experience and affordable prices. Savor the authentic flavors of couscous, dromadaire, and chakchouka.
+Afternoon: Escape the midday heat and relax with a rejuvenating spa treatment at the luxury Hotel Ras El Ain Tozeur. Enjoy a massage, body wrap, or facial in the tranquil ambiance of the spa.
+Evening: As the sun sets, take a leisurely stroll through Parc Abou El Kacem Chebbi, a commemorative park with lush greenery, blooming flowers, and tranquil pathways. Enjoy the serene atmosphere and capture the picturesque beauty of the park.
+Night: Experience the vibrant atmosphere of the Sahara Lounge, a popular bar lounge with stunning views of the surrounding desert landscape. Order a refreshing cocktail and enjoy the live entertainment or simply relax by the poolside.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9526,12 +14145,69 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at Route de la Berka, Tozeur. This top-rated destination is perfect for Bar Lounge lovers and offers a range of categories to choose from, including Bar Lounge, Parc, Centre de loisirs, Salon de the. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where is the top-rated Sahara Lounge located, and what makes it a popular destination for Bar Lounge enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, a beautifully preserved architectural gem with narrow streets, brick houses, and intricate gates.
+Mid-Morning: Visit Musée Dar Cherait, where you can learn about Tunisian history, culture, and traditional costumes.
+Midday: Indulge in a delicious local lunch at Restaurant Le Soleil, known for its authentic Tunisian dishes such as couscous and dromadaire.
+Afternoon: Take a guided tour of the Eden Palm museum to discover the significance of date palm cultivation and chocolate flavors in the region.
+Evening: Relax and unwind at Le Minaret Ferkous, a charming restaurant and cafe with an exceptional ambiance and signature cuisine.
+Night: Enjoy the lively atmosphere at The Sahara Lounge, a popular bar lounge with stunning desert views, where you can sip on refreshing drinks and soak in the vibrant surroundings.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9641,14 +14317,72 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from, including Bar lounge, Parc, Centre de loisirs, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find Sahara Lounge, a highly rated Bar lounge with a 4.1 rating that is open from 09:00-22:00, known for its Parc, Centre de loisirs, and Salon de the categories?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Lounge, a unique blend of nature and entertainment. Enjoy the park-like setting, lush palm trees, and a tranquil ambiance.
+Mid-Morning: Visit the Medina de Tozeur, a UNESCO World Heritage Site that transports you to a bygone era. Wander along narrow alleys lined with traditional brick houses and discover the vibrant culture of the desert city.
+Midday: Try local cuisine at Resto Cafe El Berka, a well-rated restaurant offering a variety of dishes.
+Afternoon: Visit the Musee Dar Cherait, which offers a glimpse into the history and culture of Tunisia. Learn about traditional Tunisian costumes, art, and objects.
+Evening: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet. Relax amidst lush greenery, blooming flowers, and tranquil pathways.
+Night: Participate in an event or activity at Sahara Lounge. The lounge often hosts events and provides catering services. Alternatively, head to Number One for some fast food.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9758,12 +14492,69 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. This top-rated destination is perfect for bar lounge lovers and offers a range of categories to choose from, including bar lounge, park, recreation center, and tea room. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on . To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>What is the highly-rated bar lounge and recreation destination located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the historical gem of Medina de Tozeur, a UNESCO World Heritage Site that transports you to a bygone era. Wander through narrow alleys lined with traditional brick houses, admiring their intricate carvings and vibrant colors.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully renovated mansion that showcases Tunisian heritage. Immerse yourself in the region's rich cultural tapestry through ancient artifacts, captivating artwork, and traditional costumes.
+Midday: Savory delights await at Restaurant Le Soleil, known for its delectable traditional Tunisian cuisine. Indulge in flavorful dishes like couscous, chakchouka, and grillades, savoring the authentic flavors of the region.
+Afternoon: Escape the bustle at Le Minaret Ferkous, a highly-rated restaurant offering a tranquil ambiance. Enjoy a leisurely lunch while soaking in the enchanting atmosphere.
+Evening: Venture to Restaurant Pizzeria Azzoura for an authentic Italian dining experience. Relish a variety of Italian dishes, delighting in the rich flavors of pizzas and traditional pasta creations.
+Night: Unwind at Sahara Lounge, nestled amidst nature. Relax on the lush park's grounds or indulge in the leisure center's activities. Experience the serenity of the surrounding landscape as you savor a refreshing beverage and soak in the tranquility of the evening.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9873,14 +14664,73 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from, including Bar lounge, Parc, Centre de loisirs, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>If you're exploring Tozeur and craving a unique nightlife experience, where would you find Sahara Lounge, known for its exceptional amenities and vibrant ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur
+Mid-Morning: Trying local cuisine at Restaurant De La Republique Tozeur
+Midday: Visiting PARC CHAK WAK
+Afternoon: Enjoying scenic views at Statue d'Ibn Chabbat
+Evening: Participating in an event at Sahara Lounge
+Night: Relaxing with a stay at Hotel Ras El Ain Tozeur</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rimel is a cafe located in Tozeur, Tunisia. It has a 5.0 rating on Google, with one review. The cafe is located at coordinates (33.930657993656, 8.128086372939).
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9986,12 +14836,71 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great meal, check out Restaurant Le Soleil located at Av. Abou el Kacem Chebbi. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can enjoy a delicious meal whenever you like. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website or call them at 22 193 881.</t>
+          <t>Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>What is the location of the highly-rated Restaurant Le Soleil, renowned for its Restaurant tunisien cuisine in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site, to discover its rich history and architectural wonders.
+Mid-Morning: Visit the Musée Dar Cherait to gain insights into Tunisian history, culture, and traditional costumes.
+Midday: Savor a delectable lunch at Restaurant De La Republique Tozeur, known for its authentic Tunisian cuisine.
+Afternoon: Enjoy a serene walk through Parc Abou El Kacem Chebbi, admiring its lush greenery and tranquil pathways.
+Evening: Indulge in a memorable dinner at Cafe El Majles, a renowned salon de the traditionnel, offering a blend of tradition and modernity.
+Night: Head to The Sahara Lounge for a captivating blend of nature and entertainment, featuring a park-like setting with lush palm trees and a variety of activities.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El aaliya is a 5-star cafe located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). Despite having no website, reviews, or featured image, it offers a cozy and inviting atmosphere for customers.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10097,12 +15006,77 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great meal at a local spot, head to Restaurant De La Republique Tozeur at Rue Hedi Jahallah, Tozeur. This restaurant specializes in Tunisian cuisine and has earned a solid 4.1-star rating. Open 24 hours a day, you can get some of their top-rated dishes like couscous, dromadaire, and poulet whenever you need. Call them at 23 821 901 for more details.</t>
+          <t>Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a local restaurant serving highly-rated Tunisian dishes like couscous and dromadaire, open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the enchanting UNESCO World Heritage Site, Medina de Tozeur, and wander through its narrow alleys adorned with traditional brick houses.
+**Mid-Morning:**
+* Visit the captivating PARC CHAK WAK, where you can immerse yourself in the mysteries of history, science, and dinosaur existence amidst lush greenery.
+**Midday:**
+* Have a delightful lunch at Restaurant De La Republique Tozeur, known for its authentic Tunisian dishes and dromadaire and poulet specialties.
+**Afternoon:**
+* Enjoy the serene atmosphere of Parc Abou El Kacem Chebbi, where blooming flowers and tranquil pathways invite you to relax and appreciate the natural beauty of Tozeur.
+**Evening:**
+* Head to Cafe El Majles, a traditional salon de the that offers a blend of tradition and modernity, for a leisurely evening tea or coffee amidst the bustling streets of Tozeur.
+**Night:**
+* Experience the lively ambiance of The Sahara Lounge, a park-like setting with lush palm trees that offers a unique blend of nature and entertainment, including a playground for kids.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace Echbala is a cafe in Tozeur, Tunisia, located at coordinates (33.9214463, 8.1296387). It has a rating of 5.0 based on 3 reviews and offers a variety of services.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10208,12 +15182,74 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Berbere  located at W4CQ+88Q Cafe Berbere  , Ouled El Hadef, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-00:00, but closed on . To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website or call them at 50 719 277.</t>
+          <t>Café Berbère is a café located in Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It has received 146 reviews and has a 5.0 rating. The café offers a variety of services, including:
+- A wide selection of drinks, including juices, teas, and coffee
+- A variety of snacks and meals
+- A chicha (water pipe) service
+- A terrace with views of the city
+- Live music on weekends
+Café Berbère is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and delicious food and drinks.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Café with a wide selection of Café options, located in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site that transports visitors to a bygone era.
+Mid-Morning: Visit the Musée Dar Cherait to learn about Tunisian history, culture, and traditional costumes.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, a Tunisian restaurant known for its couscous, salads, and grilled meats.
+Afternoon: Enjoy scenic views of the surrounding dunes and oasis at Anantara Sahara Tozeur Resort &amp; Villas.
+Evening: Relax with a swim in the pool or a massage at the spa at The Residence l'Oued, a 4-star hotel with a Moroccan-style ambiance.
+Night: Experience traditional Tunisian music and dance at the Sahara Lounge, a popular spot for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'atelier d'Amel Line is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located in the heart of the city, and it offers a great view of the surrounding area. The cafe also has a gift shop, where you can buy souvenirs and other items.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10315,12 +15351,69 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, check out Restaurant les Arcades located at Av. Habib Bourguiba. This popular destination offers a range of categories including Restaurant and is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. For more details, visit their website or call them at 76 452 902.</t>
+          <t>Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with excellent cuisine and a convenient location in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a historical site showcasing preserved architecture.
+Mid-Morning: Try local cuisine at Restaurant De La Republique Tozeur for a taste of traditional Tunisian dishes.
+Midday: Visit the Parc Abou El Kacem Chebbi for a serene and picturesque setting to relax and enjoy the natural beauty.
+Afternoon: Enjoy a guided tour of the PARC CHAK WAK, a museum offering unique exhibits on history, evolution, and natural wonders.
+Evening: Relax with a swim or unwind by the pool at the Sahara Lounge, while enjoying stunning desert views.
+Night: Indulge in a sweet treat and savor delectable crepes at Yam Yam Tozeur, known for its perfect 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Zouba is a cafe located in Tozeur, Tunisia. It is rated 4.0 out of 5 stars with 5 reviews. The cafe offers a variety of coffee and tea drinks, as well as pastries and other snacks. It is located at W4CP+F8J Cafe Zouba, Tozeur.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10426,12 +15519,76 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated restaurant, check out Scoop Cafe-Resto located at Av. Abou el Kacem Chebbi, Tozeur 2210. This popular spot offers a range of cuisines, perfect for all taste buds. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 33.9262616, 8.1315781. For more details, visit their website at  or call them at 27 720 721.</t>
+          <t>Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Tozeur with varied cuisine and convenient hours of operation?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the labyrinthine streets and historic architecture of the Medina of Tozeur, a UNESCO World Heritage Site (33.9214463, 8.1296387).
+**Mid-Morning:**
+* Visit the Musee Dar Cherait (33.9214463, 8.1296387), a museum showcasing ancient artifacts and traditional Tunisian costumes.
+**Midday:**
+* Indulge in a traditional Tunisian lunch at Restaurant De La Republique Tozeur (W4CP+C5 Rue Hedi Jahallah, Tozeur), known for its dromadaire and poulet dishes.
+**Afternoon:**
+* Visit the Statue d'Ibn Chabbat (33.92100958622, 8.117383840332), an iconic sculpture paying homage to the renowned Tunisian poet.
+**Evening:**
+* Relax and enjoy a leisurely stroll through Parc Abou El Kacem Chebbi, with its lush greenery and blooming flowers.
+**Night:**
+* Experience the local nightlife at Sahara Lounge (Route de la Berka, Tozeur), a bar lounge with stunning views of the surrounding landscape.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10537,12 +15694,68 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great place to eat, check out Restaurant Tisouros located at 88 Avenue Abou Al Kacem Chebbi. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on Tuesdays and Wednesdays. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Tisouros/data=!4m7!3m6!1s0x1257ebe7ad1ddc89:0xf765598b30134855!8m2!3d33.9173497!4d8.1333713!16s%2Fg%2F11vj3n6y2q!19sChIJidwdrefrVxIRVUgTMItZZfc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 999 738.</t>
+          <t>Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a perfect 4.7 rating located at Avenue Abou Al Kacem Chebbi in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Tozeur, a UNESCO World Heritage Site
+Mid-Morning: Visit the Musee Dar Cherait, a museum housed in a restored mansion
+Midday: Try local cuisine at Restaurant Le Soleil, a traditional Tunisian restaurant
+Afternoon: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park
+Evening: Relax with a massage at Dar Ezzahra, a guest house with a garden
+Night: Experience cultural immersion at the Eden Palm, a heritage museum with palm trees and date tastings</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10648,16 +15861,70 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a splendid dining experience, head to Le Minaret Ferkous located at: W4CP+H3M Rue Mohamed Ali El Ajimi. 
-This top-rated restaurant, with a rating of 4.8, is a must-visit spot for Restaurant and Cafe enthusiasts. 
-It's open 24 hours a day, so you can enjoy a delightful meal or a relaxing cafe experience anytime you crave it. 
-For more information, visit their website at https://www.google.com/maps/place/Le+Minaret+Ferkous/data=!4m7!3m6!1s0x1257eb9c4e0b1c51:0x694bb8b4b9ec92ea!8m2!3d33.9214663!4d8.1351477!16s%2Fg%2F11kqzvg8p8!19sChIJURwLTpzrVxIR6pLsubS4S2k?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at 22 716 333 for reservations or inquiries.</t>
+          <t>Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated restaurant that offers a 24-hour dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the captivating Medina de Tozeur, a UNESCO World Heritage Site, and delve into the rich history and architecture of the Tunisian Sahara Desert.
+Mid-Morning: Tantalize your taste buds with a culinary journey at Restaurant Le Soleil, renowned for its traditional Tunisian cuisine. Savor the flavors of couscous, chakchouka, and delectable grillades.
+Midday: Immerse yourself in the cooperative spirit and affordable culinary delights of Restaurant Tisouros. Engage with the welcoming staff and indulge in the authentic flavors of Tozeur.
+Afternoon: Ascend to Cafe El Majles, a highly acclaimed salon de the traditionnel, and relish the harmonious blend of tradition and modernity. Sip on aromatic tea and soak in the vibrant ambiance of this beloved cafe.
+Evening: Embark on a guided tour of the Musée Dar Cherait, a restored mansion housing an array of ancient Tunisian artifacts, artwork, and traditional costumes. Discover the captivating history and culture of Tunisia within its walls.
+Night: For a memorable evening, head to the Sahara Lounge, a park-like setting adorned with lush palm trees. Its tranquil ambiance, coupled with a zip line and playground for children, makes it an ideal destination for families.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10763,12 +16030,68 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated restaurant, check out La Grotte Restaurant located at Rue Ali El Warteni. This popular spot is perfect for Restaurant lovers and offers a range of cuisines to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/La+Grotte+Restaurant/data=!4m7!3m6!1s0x1257eba753a713cf:0x42cfa233718377f7!8m2!3d33.9210873!4d8.1280731!16s%2Fg%2F11h1124w6h!19sChIJzxOnU6frVxIR93eDcTOiz0I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 191 091.</t>
+          <t>La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated restaurant with a wide cuisine selection, offering a memorable dining experience from 6am to midnight?</t>
+          <t>Day Plan:
+Morning: Explore the ancient alleyways and intricate architecture of Medina de Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Immerse in the local culture at Musée Dar Cherait, featuring exhibits on Tunisian history and traditions.
+Midday: Relish authentic Tunisian cuisine at Restaurant Le Soleil, known for its traditional dishes like couscous and dromadaire.
+Afternoon: Take a stroll through Parc Abou El Kacem Chebbi, enjoying its serene ambiance and lush greenery.
+Evening: Experience the vibrant atmosphere at the Sahara Lounge, offering stunning views of palm trees and activities for children.
+Night: Satisfy your sweet cravings with delectable crepes at Yam Yam Tozeur, renowned for its highly-rated desserts.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Zouba is a cafe located in Tozeur, Tunisia. It is rated 4.0 out of 5 stars with 5 reviews. The cafe offers a variety of coffee and tea drinks, as well as pastries and other snacks. It is located at W4CP+F8J Cafe Zouba, Tozeur.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10878,14 +16201,68 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out M7ar7er Fast Food located at W4JH+8GH M7ar7er Fast Food, Avenue d'Iraq. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.930657993656, 8.128086372939. For more details, visit their website at https://www.facebook.com/M7ar7erfastfood/ or call them at 24 015 014.</t>
+          <t>M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated fast food restaurant with an impressive 4.2 rating and extended hours of operation?</t>
+          <t>Day Plan:
+Morning: Visit the UNESCO World Heritage Site of the Medina of Tozeur and explore its labyrinthine alleys, intricate doors, and stunning desert architecture.
+Mid-Morning: Take a guided tour of Musee Dar Cherait, a restored mansion showcasing a captivating collection of Tunisian heritage, including ancient artifacts, fine art, and traditional costumes.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, known for its dromadaire and poulet dishes.
+Afternoon: Embark on a camel ride or quad biking adventure at the Sahara Lounge, a bar lounge offering stunning views of the surrounding desert landscape.
+Evening: Experience cultural immersion at the Le Minaret Ferkous, a 4.8-star rated restaurant featuring live music and traditional Tunisian entertainment.
+Night: Relax and unwind at the Anantara Sahara Tozeur Resort &amp; Villas, a luxury hotel resort with a swimming pool, spa, fitness center, and a restaurant.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe My Story is a popular cafe located in Tozeur. The cafe offers a variety of drinks and snacks, and is a great place to relax and enjoy the atmosphere. Cafe My Story is located at W4CJ+824 Cafe My Story, Av. du 9 Avril, Tozeur, and is open from Monday to Sunday, from 8am to 10pm.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10991,14 +16368,75 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a delicious Italian meal, check out Restaurant Pizzeria Azzoura located at W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website or call them at 52 346 500.</t>
+          <t>Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Italian restaurant in Tozeur, Tunisia, with a diverse menu and extended hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Visit the historical Medina de Tozeur to explore its charming streets and authentic architecture.
+**Mid-Morning:**
+- Immerse yourself in local culture and flavors at Bonzai Lounge Coffee, known for its exceptional coffee and vibrant atmosphere.
+**Midday:**
+- Indulge in a delicious lunch of traditional Tunisian dishes at Restaurant De La Republique Tozeur, renowned for its dromadaire and poulet specialties.
+**Afternoon:**
+- Discover the beauty of nature and relaxation at Parc Abou El Kacem Chebbi, offering serene surroundings and picturesque walking paths.
+**Evening:**
+- Head to La Grotte Restaurant for a delightful dining experience, savoring its famous chicken dishes and reasonable prices.
+**Night:**
+- Experience the vibrant nightlife at the Sahara Lounge, offering a unique atmosphere amidst nature and activities for children, including a thrilling tyrolienne.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11104,14 +16542,68 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Resto Cafe El Berka located at W48Q+HH9 Resto Cafe El Berka, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on No Data Available. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Resto+Caf%C3%A9+El+Berka/data=!4m7!3m6!1s0x1257c15765a2fc13:0x5a057b5b991c1aee!8m2!3d33.916396!4d8.1389735!16s%2Fg%2F11vjggt1rf!19sChIJE_yiZVfBVxIR7hocmVt7BVo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 297 297.</t>
+          <t>Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Tozeur, popular among restaurant enthusiasts and boasting a range of dining options?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Tozeur
+Mid-Morning: Enjoying a coffee and pastries at Cafe El Majles
+Midday: Trying local cuisine at Restaurant De La Republique Tozeur
+Afternoon: Visiting the Musee Dar Cherait to learn about Tunisian heritage
+Evening: Shopping for dates and local crafts at the souks in the Medina of Tozeur
+Night: Relaxing and enjoying the sunset at the Sahara Lounge</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11213,12 +16705,68 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, head to Restaurant La Medina on Ave Farhat Hached. It's a popular spot for Restaurant lovers and offers a great dining experience with a rating of 4.8. Call them at 93 330 491 or visit their website for more details.</t>
+          <t>Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>If you're visiting Tozeur and craving a highly-acclaimed culinary experience, name the restaurant on Ave Farhat Hached known for its exceptional dining experience.</t>
+          <t>Day Plan:
+Morning: Visit the Medina of Tozeur, a UNESCO World Heritage Site, to explore its narrow brick alleys, intricate doors, and stunning desert architecture.
+Mid-Morning: Try local cuisine at Restaurant De La Republique Tozeur, which offers a variety of Tunisian dishes, including couscous, salads, and grilled meats.
+Midday: Take a guided tour of Musée Dar Cherait to learn about Tunisian history, culture, and traditional costumes.
+Afternoon: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park with lush greenery, blooming flowers, and tranquil pathways.
+Evening: Participate in a tyrolienne experience at Sahara Lounge, a bar lounge with stunning views of palm trees and activities for children.
+Night: Relax with a traditional Hammam experience at Residence l'Oued, a 4-star hotel with a Moroccan-style ambiance.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baoueb Lemdina is a cafe located in the city of Tozeur, Tunisia. It offers a variety of drinks and snacks, and is located on Avenue Avicenne. The cafe has a rating of 4.0 out of 5 on Google, and is open from 4:00 am to 10:00 pm.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11320,14 +16868,72 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant Princesse located at W4CP+Q2M Restaurant Princesse, Av. Habib Bourguiba, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, call them at 22 404 506.</t>
+          <t>Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (4.7 stars) located on Habib Bourguiba Avenue in Tozeur, perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Medina de Tozeur, a UNESCO World Heritage Site, and immerse yourself in its rich architectural heritage.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully renovated mansion that showcases the region's cultural tapestry through ancient artifacts, artwork, and traditional costumes.
+Midday: Savor the delectable flavors of local cuisine at Restaurant Pizzeria Azzoura, known for its authentic Italian dishes.
+Afternoon: Relax and rejuvenate at the Sahara Lounge, enjoying scenic palm tree views while indulging in activities like tyrolienne, ideal for a family outing.
+Evening: Discover the Unnamed Cafe, nestled amidst Tozeur's enchanting streets, and unwind in its cozy ambiance while enjoying a refreshing beverage.
+Night: Take a stroll through Parc Abou El Kacem Chebbi, a commemorative park offering picturesque greenery and tranquil pathways for a peaceful evening walk.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Discover the Unnamed Cafe in Tozeur**
+Nestled amidst the enchanting city of Tozeur, the Unnamed Cafe invites you to indulge in a serene and cozy ambiance. Situated at coordinates (33.9214463, 8.1296387), it offers a delightful menu and a welcoming atmosphere that will make your visit unforgettable.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11437,12 +17043,68 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Bonzai Lounge Coffee located at W4C9+CV5 P3, Tozeur. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/Coffee-Bonzai-236924553917206/ or call them at 52 230 007.</t>
+          <t>Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with extended hours in Tozeur known for its diverse menu options?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a UNESCO World Heritage Site, to discover its rich architectural heritage and vibrant culture.
+Mid-Morning: Trying local cuisine at Cafe El Majles, a renowned salon de the traditionnel, for a perfect blend of tradition and modernity.
+Midday: Visiting Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of the renowned Tunisian poet, to learn about the region's literary heritage.
+Afternoon: Enjoying a camel ride or quad biking excursion in the surrounding Sahara Desert with The Sahara Lounge, while experiencing the stunning desert landscape.
+Evening: Shopping for local handicrafts and savoring the sweet taste of dates at Eden Palm, a cultural heritage museum that showcases date palm cultivation and chocolate-infused delights.
+Night: Relaxing with a swim and enjoying a delightful dinner at the Sahara Lounge, a bar lounge with a swimming pool and restaurant, offering a unique desert dining experience.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11548,14 +17210,70 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant Castilia located at Avenue Avicenne, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Bar to choose from.
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 33.926052462407, 8.137673503962. For more details, visit their website.</t>
+          <t>Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated restaurant with both a restaurant and bar, making it an ideal destination for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Musee Dar Cherait to learn about the region's cultural heritage.
+Midday: Savor a traditional Tunisian lunch at Restaurant Le Soleil, known for its exquisite couscous and chakchouka.
+Afternoon: Engage in outdoor activities at the Sahara Lounge, where you can enjoy the park-like setting with lush palm trees, playground, and zip line.
+Evening: Experience cultural immersion at Cafe El Majles, a renowned salon de the traditionnel that serves delicious tea and traditional sweets.
+Night: Relax with a spa treatment at Residence l'Oued, a Moroccan-style hotel with an outdoor pool and cozy rooms.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11657,15 +17375,76 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great bite, check out Number one located at W49H+VJ6 Rue 2 Mars 1934. 
-This top-rated fast food joint is a must-visit spot with a rating of 5.0.
-To get there, use these GPS coordinates: 33.921002262414, 8.129355773385.
-For more details, call them at 52 893 947.</t>
+          <t>**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a top-rated fast food joint that boasts a 5.0 rating and is highly recommended by locals?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Medina de Tozeur, a UNESCO World Heritage Site, to discover its ancient architecture and vibrant culture.
+**Mid-Morning:**
+- Visit the Musée Dar Cherait to learn about Tunisian history and culture through its collection of artifacts and art.
+**Midday:**
+- Indulge in traditional Tunisian cuisine at Restaurant Le Soleil, known for its authentic dishes like couscous and dromadaire.
+**Afternoon:**
+- Enjoy the scenic beauty of Parc Abou El Kacem Chebbi, where you can relax amidst lush greenery and tranquil pathways.
+**Evening:**
+- Take a leisurely stroll through the Sahara Lounge, a park-like setting featuring palm trees and a playground for families.
+**Night:**
+- Experience the vibrant atmosphere at the Sahara Lounge, offering a unique blend of entertainment and nature with live music and food options.</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11767,12 +17546,70 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Palmera located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palmera/data=!4m7!3m6!1s0x1257ea9d3d0edf39:0x7c51cdf1d5186c40!8m2!3d33.9166614!4d8.131922!16s%2Fg%2F11gfn736f5!19sChIJOd8OPZ3qVxIRQGwY1fHNUXw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>If you're looking for a highly rated spot with a wide selection of Cafe options in Tozeur, what's the name of the top-rated destination known for its Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore the captivating Medina of Tozeur, a UNESCO World Heritage Site, to delve into its rich history and architectural wonders.
+Mid-Morning: Immerse yourself in the flavors of Tunisian cuisine by trying local dishes at Restaurant Le Soleil, renowned for its traditional culinary delights.
+Midday: Visit the intriguing Musee Dar Cherait to gain insights into the history and culture of Tozeur through its captivating exhibits.
+Afternoon: Enjoy a tranquil retreat at the Parc Abou El Kacem Chebbi, a commemorative park offering picturesque settings for relaxation and nature appreciation.
+Evening: Engage in outdoor activities like hiking or sandboarding at the Sahara Lounge, where you can embrace the serene ambiance and stunning views of the desert landscape.
+Night: Experience the vibrant nightlife at the Station Louage de Tozeur, where you can mingle with locals and fellow travelers while indulging in local music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11878,14 +17715,68 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Pronto Fast Food located at Av. Habib Bourguiba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00 but closed on . To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, visit their website or call them at 96 710 733.</t>
+          <t>Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restauration rapide destination with a 5.0 rating and convenient hours in Tozeur?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Visit Musee Dar Cherait, a museum dedicated to Tunisian heritage, for a glimpse into the local history and culture.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, a renowned Tunisian restaurant with a 4.1 rating on Google.
+Afternoon: Enjoy scenic views and kid-friendly activities at Sahara Lounge, a bar lounge with an inviting park and leisure center.
+Evening: Explore Casa Dar Tozeur, an elegant guesthouse, for dinner and traditional entertainment in a charming ambiance.
+Night: Relax with a soothing spa treatment at Dar Tozeur, a luxurious guesthouse with a wellness center.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11995,14 +17886,68 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe La Rosa located at W48M+R37 Cafe La Rosa, Av. Abou el Kacem Chebbi, Tozeur. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://m.facebook.com/Cafe-La-Rosa-tozeur-660194007516712/%3Fref%3Dpage_internal%26mt_nav%3D0 or call them at 24 804 483.</t>
+          <t>Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you experience a top-rated café destination with a 4.5 rating that's perfect for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Tozeur, a well-preserved city center showcasing traditional architecture and vibrant local markets.
+Mid-Morning: Try local cuisine at Restaurant De La Republique Tozeur, known for its authentic Tunisian dishes, including couscous and dromadaire.
+Midday: Visit PARC CHAK WAK, a captivating museum that blends history, science, and creativity, offering insights into the evolution of humanity and the mysteries of dinosaurs.
+Afternoon: Relax with a scenic walk through Parc Abou El Kacem Chebbi, a serene park with lush greenery, blooming flowers, and tranquil pathways, providing a peaceful escape in the heart of the city.
+Evening: Enjoy stunning views of the desert landscape at the Sahara Lounge, a popular spot for locals and tourists, offering a swimming pool, a restaurant, and a bar, along with activities like camel rides and quad biking.
+Night: Immerse yourself in the local culture at Cafe El Majles, a renowned salon de the traditionnel known for its traditional ambiance and delicious offerings, providing a perfect blend of tradition and modernity.</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a cafe located in Tozeur, Tunisia, offering a cozy ambiance and a variety of coffee and tea beverages. Customers can unwind and enjoy their drinks while taking in the surroundings. The cafe operates daily from 5:30 AM to midnight, providing ample time for locals and visitors alike to visit and indulge in its offerings.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.
+Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12108,12 +18053,68 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Mallorca located at Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487.</t>
+          <t>Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly rated 24-hour cafe beloved by cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the well-preserved architecture of the Medina de Tozeur, a historical site and tourist attraction showcasing the city's rich history and culture.
+Mid-Morning: Trying local cuisine at Restaurant Beb Elhawa, a fast food restaurant offering a variety of food options in a convenient location.
+Midday: Visiting PARC CHAK WAK, a fascinating museum that offers a captivating blend of history, science, and creativity, providing a unique and memorable experience.
+Afternoon: Enjoying scenic views at Statue d'Ibn Chabbat, a well-known sculpture located in a prime location, offering a wonderful experience for visitors.
+Evening: Relaxing with a tyrolienne at the Sahara Lounge, a bar lounge located in the city of Tozeur that offers a relaxing atmosphere amidst nature, with activities for children and affordable prices.
+Night: Experiencing cultural immersion at Le Minaret Ferkous, a combination of restaurant and cafe that offers a combination of tradition and modernity and is known for its exceptional ambiance and signature cuisine.</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.
+Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12215,12 +18216,69 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a quick bite to eat, head to Pizzeria Krabaa, located on 192 Av. Abou el Kacem Chebbi. This highly-rated spot serves up delicious pizzas and other fast food options, perfect for when you're on the go. With a 4.3 rating, it's a must-visit for foodies in the area. To get there, use these GPS coordinates: 33.91717636496, 8.133063786585. For more details, call them at 52 795 212.</t>
+          <t>Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated pizzeria with a convenient location and a tempting menu of pizzas and fast food options?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Tozeur, a UNESCO World Heritage Site.
+Mid-Morning: Trying local Tunisian cuisine at Restaurant De La Republique Tozeur, known for its dromedary.
+Midday: Visiting Musée Dar Cherait, a museum featuring exhibits on Tunisian history, culture, and traditional costumes.
+Afternoon: Enjoying a relaxing swim at the Sahara Lounge, a bar lounge with stunning views of the surrounding desert landscape.
+Evening: Participating in a camel ride adventure at L'ilot Palmiers, a camping site located in a beautiful palm grove.
+Night: Experiencing traditional Tunisian music and dance performances at Cafe Chak Wak, a restaurant with a welcoming ambiance and a focus on quality service.</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12318,12 +18376,69 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a quick bite, head to Tito's Tozeur located at W4CH+GMF Tito's Tozeur, Tozeur. This top-rated fast food joint is a must-visit spot, with a rating of 4.0. Be sure to visit their website at  for more details.</t>
+          <t>Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fast food spot in Tozeur, known for its convenience and popularity?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Tozeur, a UNESCO World Heritage Site, and delve into the rich cultural heritage of the region.
+Mid-Morning: Visit the Musee Dar Cherait, a beautifully restored mansion that showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the region's cultural tapestry.
+Midday: Try local cuisine at Restaurant Le Soleil, a traditional Tunisian restaurant serving couscous, dromadaire, and chakchouka.
+Afternoon: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet. Relax amidst lush greenery, blooming flowers, and tranquil pathways.
+Evening: Participate in the Sahara Lounge's tyrolienne, an exhilarating experience set against stunning views of palm trees. The lounge offers a relaxing atmosphere amidst nature and activities for children.
+Night: Indulge in a relaxing Hammam experience at Dar Ezzahra, a guest house in the heart of Tozeur. Unwind in the traditional steam bath and soothe your body and mind.</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12417,14 +18532,71 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something good to eat, check out Restaurant Beb Elhawa located at W4CM+R78 Restaurant Beb Elhawa, Rue Ibn Toufail. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9221370448, 8.133922139245.</t>
+          <t>Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>For travelers seeking a highly rated restaurant experience in Tozeur, what must-visit spot specializing in Restauration rapide cuisine boasts a perfect 5.0 rating and is located at W4CM+R78 Restaurant Beb Elhawa, Rue Ibn Toufail, with GPS coordinates 33.9221370448, 8.133922139245?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina de Tozeur, a stunning historical site with well-preserved architecture.
+Mid-Morning: Trying local cuisine at Restaurant Le Soleil, where you can savor traditional Tunisian dishes such as couscous, chakchouka, and grillades.
+Midday: Visiting Musee Dar Cherait to delve into the captivating history and culture of Tozeur, showcasing ancient artifacts, fine art, and traditional costumes.
+Afternoon: Enjoying a leisurely stroll in Parc Abou El Kacem Chebbi, surrounded by lush greenery, blooming flowers, and tranquil pathways, offering a peaceful escape.
+Evening: Participating in a camel ride at L'ilot Palmiers, a camping site located amidst a beautiful palm grove, providing a unique and memorable desert experience.
+Night: Relaxing at the Sahara Lounge, a park-like setting with palm trees, offering a tranquil ambiance, live music, and a playground for children, creating a perfect end to the day.</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12526,12 +18698,74 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated creperie to satisfy your cravings, Yam Yam Tozeur located at Rue Mohamed Belkhouja is the perfect spot. With a remarkable rating of 5.0, this beloved destination offers a delightful range of crepes to choose from. Open during its regular operating hours, Yam Yam Tozeur proudly presents its delicious offerings. To get there, simply use the provided GPS coordinates: 33.920437098261, 8.128584735218. For more information and updates, be sure to visit their website or give them a call at 53 482 182.</t>
+          <t>In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you indulge in highly rated crepes at Yam Yam Tozeur?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Medina of Tozeur, a UNESCO World Heritage site, for its rich history and architectural wonders.
+**Mid-Morning:**
+* Visit the Musee Dar Cherait to learn about the history and culture of Tunisia, showcasing traditional costumes, art, and objects.
+**Midday:**
+* Try local cuisine at Restaurant De La Republique Tozeur, a Tunisian restaurant with a 4.1-star rating.
+**Afternoon:**
+* Visit Eden Palm, a cultural heritage museum dedicated to date palm cultivation and the flavors of dates and chocolate.
+**Evening:**
+* Relax with a stroll or picnic lunch at Parc Abou El Kacem Chebbi, a commemorative park named after a renowned Tunisian poet.
+**Night:**
+* Enjoy the scenic views and nightlife at Sahara Lounge, a bar lounge with a lush park and leisure center.</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12633,12 +18867,74 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated Cafe, check out The Wolf located at W489+7PQ The Wolf, Rte Touristique. This local favorite offers a cozy atmosphere and a wide selection of beverages and snacks. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 05:30-00:00. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipPZBHCivhYMIVjYO0xWO7TBxLnqOJqCHcO_QWke=w408-h306-k-no or call them at [phone number].</t>
+          <t>The Wolf is a cafe located in Tozeur, Tunisia at (33.9214463, 8.1296387). It offers a cozy ambiance to relax and enjoy its variety of drinks and snacks. The cafe opens from 5:30 AM to midnight.</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>Where can you find a cafe with a perfect rating that offers a cozy atmosphere in Tozeur?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Medina de Tozeur, admiring its well-preserved architecture.
+**Mid-Morning:**
+- Visit the Musee Dar Cherait to delve into the rich cultural heritage of Tunisia.
+**Midday:**
+- Try local cuisine at Restaurant Le Soleil, renowned for its traditional Tunisian dishes.
+**Afternoon:**
+- Relax and enjoy the desert landscape at The Sahara Lounge, offering stunning views and activities like camel rides.
+**Evening:**
+- Experience cultural immersion at a traditional salon de the, Cafe El Majles, known for its blend of tradition and modernity.
+**Night:**
+- Savory a 5-star dining experience at Anantara Sahara Tozeur Resort &amp; Villas, offering exceptional cuisine and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12736,12 +19032,75 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated dining experience, visit Chez Giorgio at W48J+MQ8. This restaurant is highly recommended for food enthusiasts and offers a cozy ambiance. With a rating of 5.0, it's a must-try spot. Visit their website for more details.</t>
+          <t>Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>Question: What highly-rated dining spot in Tozeur is recommended for its food and ambiance?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the well-preserved architecture and historical streets of the Medina de Tozeur.
+**Mid-Morning:**
+- Visit the Mausolee d'Abou El Kacem Chebbi to learn about the life and work of Tunisia's famous poet.
+**Midday:**
+- Try local Tunisian dishes at Restaurant De La Republique Tozeur, known for its dromadaire and poulet specialties.
+**Afternoon:**
+- Visit the Eden Palm museum to learn about date palm cultivation and chocolate production.
+**Evening:**
+- Relax at the Sahara Lounge while enjoying stunning views of the desert and partaking in activities like camel riding or quad biking.
+**Night:**
+- Have dinner at Restaurant Pizzeria Azzoura, serving authentic Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12843,12 +19202,71 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated Restaurant, check out Harissa &amp; Lablebi located at W4CJ+66R Harissa &amp; Lablebi, Av. Mohamed Ben Alaya, Tozeur. With a rating of 5.0, it's a must-visit spot and offers a range of Restaurant categories to choose from. It's open during these hours: 05:00-13:00, but closed on To get there, use these GPS coordinates: 33.982462, 35.6551931. For more details, visit their website at .</t>
+          <t>Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant located in Tozeur that offers a range of categories and boasts a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a historical site that exudes charm and authenticity.
+Mid-Morning: Visit the Musée Dar Cherait, a restored mansion that houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, a Tunisian restaurant offering a variety of dishes, including couscous, salads, and legumes.
+Afternoon: Enjoy scenic views at Statue d'Ibn Chabbat, a well-known sculpture located in Avenue Farhat Hached, Tozeur.
+Evening: Relax with a traditional Hammam experience at a local spa or hotel.
+Night: Participate in an event or activity at The Sahara Lounge, a renowned place in Tozeur that offers a unique blend of nature and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.
+Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12950,14 +19368,68 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for convenient transportation, head to Station Louage de Tozeur located at Rue Sadrabaal. 
-This top-rated destination is perfect for transportation enthusiasts and offers reliable services to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.9230133, 8.13044. For more details, call them at 98 283 332.</t>
+          <t>Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>Where can you find top-rated transportation services in Tozeur and what are the GPS coordinates to reach it?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Tozeur
+Mid-Morning: Trying local cuisine at Restaurant De La Republique Tozeur
+Midday: Visiting Musée Dar Cherait
+Afternoon: Enjoying recreational activities at L'ilot Palmiers
+Evening: Relaxing with a traditional tea at Cafe El Majles
+Night: Participating in cultural immersion at Eden Palm</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).
+Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.
+Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.
+Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13055,12 +19527,68 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for reliable transportation services, Gare Routiere de Tozeur is an excellent choice. Conveniently located at W4CJ+P8Q Gare Routiere de Tozeur, this highly-rated transportation hub provides a seamless experience for travelers. With a rating of 3.9, it's a must-visit spot for those seeking efficient and comfortable transportation solutions. For more details, visit their website or call them for assistance.</t>
+          <t>The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated transportation hub conveniently located for travelers, boasting a strong reputation for reliability and comfort?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Tozeur, a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage.
+Mid-Morning: Discover the vibrant culture of the desert city at the Maison Des Poissons Tozeur, a seafood market where you can bargain for local handicrafts and savor the sweet taste of dates.
+Midday: Try local cuisine at Restaurant De La Republique Tozeur, a Tunisian restaurant known for its dromadaire and poulet dishes.
+Afternoon: Visit the Musée Dar Cherait, a restored mansion that houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes.
+Evening: Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area.
+Night: Experience cultural immersion at the Sahara Lounge, a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families.</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.
+Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.
+Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.
+**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13158,12 +19686,77 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>If you're in Tozeur, consider visiting Gare de train. This top-rated destination is perfect for Gare lovers. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7404813, 10.2281091.</t>
+          <t>Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>For train enthusiasts seeking an extraordinary destination in Tozeur, where would you suggest they visit and why?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Medina de Tozeur, a historical site known for its well-preserved architecture and vibrant market.
+**Mid-Morning:**
+* Visit the Mausolee d'Abou El Kacem Chebbi, a museum dedicated to the life and work of the Tunisian poet.
+**Midday:**
+* Try local cuisine at Restaurant Chak Wak, known for its delicious dishes and live music ambiance.
+**Afternoon:**
+* Take a guided tour of the Eden Palm, a heritage museum that offers an immersive experience with chocolate making demonstrations and local product tastings.
+**Evening:**
+* Enjoy scenic views at Parc Abou El Kacem Chebbi, a commemorative park with lush greenery and tranquil pathways.
+**Night:**
+* Experience cultural immersion at the Sahara Lounge, featuring a park-like setting with palm trees and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.
+Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.
+Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.
+Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.
+Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13265,12 +19858,74 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Station Louage de Tozeur located at Rue Sadrabaal, Tozeur. This top-rated destination is perfect for Transports en commun lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.9230133, 8.13044. For more details, call them at 98 283 332.</t>
+          <t>The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a top-rated destination with GPS coordinates of 33.9230133, 8.13044 that caters specifically to Transports en commun enthusiasts?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the Medina of Tozeur, a labyrinth of narrow streets with intricate architecture.
+**Mid-Morning:**
+* Visit the PARC CHAK WAK museum to learn about the origins of life and dinosaur existence amidst a beautiful palmeraie.
+**Midday:**
+* Try local cuisine at Harissa &amp; Lablebi, a restaurant offering a 5-star dining experience.
+**Afternoon:**
+* Enjoy a relaxing afternoon with a camel ride and quad biking adventure at The Sahara Lounge.
+**Evening:**
+* Explore the bustling souks, where artisans showcase their traditional crafts.
+**Night:**
+* Indulge in the sweet taste of local dates and savor rich aromas of chocolate at Eden Palm, a cultural heritage museum.</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).
+Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.
+Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.
+Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.
+Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.
+Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.
+Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.
+L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.
+Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).
+Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).
+In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.
+Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).
+PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.
+Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.
+Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.
+Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.
+The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.
+Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.
+Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.
+In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.
+The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.
+The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.
+Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
